--- a/descargas_smv/INTERCORP_FINANCIAL_SERVICES_INC/2024-ReporteDetalleInformacionFinanciero.xlsx
+++ b/descargas_smv/INTERCORP_FINANCIAL_SERVICES_INC/2024-ReporteDetalleInformacionFinanciero.xlsx
@@ -15829,22 +15829,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E67" s="16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F67" s="16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G67" s="16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H67" s="16" t="inlineStr">
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -15861,22 +15861,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E68" s="16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F68" s="16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G68" s="16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H68" s="16" t="inlineStr">
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -15893,22 +15893,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E69" s="16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F69" s="16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G69" s="16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H69" s="16" t="inlineStr">
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -15925,22 +15925,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E70" s="16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F70" s="16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G70" s="16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H70" s="16" t="inlineStr">
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -15957,22 +15957,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E71" s="16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F71" s="16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G71" s="16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H71" s="16" t="inlineStr">
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -15989,22 +15989,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E72" s="16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F72" s="16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G72" s="16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H72" s="16" t="inlineStr">
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -16021,22 +16021,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E73" s="16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F73" s="16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G73" s="16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H73" s="16" t="inlineStr">
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -16053,22 +16053,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E74" s="16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F74" s="16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G74" s="16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H74" s="16" t="inlineStr">
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -16085,22 +16085,22 @@
           <t>1325747</t>
         </is>
       </c>
-      <c r="E75" s="16" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1105748</t>
         </is>
       </c>
-      <c r="F75" s="16" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1690625</t>
         </is>
       </c>
-      <c r="G75" s="16" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>1828693</t>
         </is>
       </c>
-      <c r="H75" s="16" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>381242</t>
         </is>
@@ -16117,22 +16117,22 @@
           <t>181</t>
         </is>
       </c>
-      <c r="E76" s="16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F76" s="16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G76" s="16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H76" s="16" t="inlineStr">
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -16149,22 +16149,22 @@
           <t>1325928</t>
         </is>
       </c>
-      <c r="E77" s="16" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1105748</t>
         </is>
       </c>
-      <c r="F77" s="16" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1690625</t>
         </is>
       </c>
-      <c r="G77" s="16" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>1828693</t>
         </is>
       </c>
-      <c r="H77" s="16" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>381242</t>
         </is>
@@ -16181,22 +16181,22 @@
           <t>(25,850)</t>
         </is>
       </c>
-      <c r="E78" s="16" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>(33,020)</t>
         </is>
       </c>
-      <c r="F78" s="16" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>(30,044)</t>
         </is>
       </c>
-      <c r="G78" s="16" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>(38,538)</t>
         </is>
       </c>
-      <c r="H78" s="16" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
@@ -16213,22 +16213,22 @@
           <t>1300078</t>
         </is>
       </c>
-      <c r="E79" s="16" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1072728</t>
         </is>
       </c>
-      <c r="F79" s="16" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1660581</t>
         </is>
       </c>
-      <c r="G79" s="16" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>1790155</t>
         </is>
       </c>
-      <c r="H79" s="16" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>383259</t>
         </is>
@@ -16245,22 +16245,22 @@
           <t>11.376</t>
         </is>
       </c>
-      <c r="E80" s="16" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>9.327</t>
         </is>
       </c>
-      <c r="F80" s="16" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>14.388</t>
         </is>
       </c>
-      <c r="G80" s="16" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>15.510</t>
         </is>
       </c>
-      <c r="H80" s="16" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>3.320</t>
         </is>
@@ -16277,22 +16277,22 @@
           <t>11.376</t>
         </is>
       </c>
-      <c r="E81" s="16" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>9.327</t>
         </is>
       </c>
-      <c r="F81" s="16" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>14.388</t>
         </is>
       </c>
-      <c r="G81" s="16" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>15.510</t>
         </is>
       </c>
-      <c r="H81" s="16" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>3.320</t>
         </is>
@@ -18193,7 +18193,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T141"/>
+  <dimension ref="A1:U141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18355,25 +18355,29 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
+          <t>4FT009</t>
+        </is>
+      </c>
+      <c r="E8" s="13" t="inlineStr">
+        <is>
           <t>5. Resultado Integral:</t>
         </is>
       </c>
-      <c r="E8" s="13" t="inlineStr"/>
-      <c r="F8" s="13" t="inlineStr"/>
-      <c r="G8" s="13" t="inlineStr"/>
-      <c r="H8" s="13" t="inlineStr"/>
-      <c r="I8" s="13" t="inlineStr"/>
-      <c r="J8" s="13" t="inlineStr"/>
-      <c r="K8" s="13" t="inlineStr"/>
-      <c r="L8" s="13" t="inlineStr"/>
-      <c r="M8" s="13" t="inlineStr"/>
-      <c r="N8" s="13" t="inlineStr"/>
-      <c r="O8" s="13" t="inlineStr"/>
-      <c r="P8" s="13" t="inlineStr"/>
-      <c r="Q8" s="13" t="inlineStr"/>
-      <c r="R8" s="13" t="inlineStr"/>
-      <c r="S8" s="13" t="inlineStr"/>
-      <c r="T8" s="13" t="inlineStr"/>
+      <c r="F8" s="13" t="n"/>
+      <c r="G8" s="13" t="n"/>
+      <c r="H8" s="13" t="n"/>
+      <c r="I8" s="13" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="13" t="n"/>
+      <c r="L8" s="13" t="n"/>
+      <c r="M8" s="13" t="n"/>
+      <c r="N8" s="13" t="n"/>
+      <c r="O8" s="13" t="n"/>
+      <c r="P8" s="13" t="n"/>
+      <c r="Q8" s="13" t="n"/>
+      <c r="R8" s="13" t="n"/>
+      <c r="S8" s="13" t="n"/>
+      <c r="T8" s="13" t="n"/>
     </row>
     <row r="9">
       <c r="C9" s="14" t="inlineStr">
@@ -18383,28 +18387,33 @@
       </c>
       <c r="D9" s="15" t="inlineStr">
         <is>
+          <t>4F0211</t>
+        </is>
+      </c>
+      <c r="E9" s="15" t="inlineStr">
+        <is>
           <t>6. Resultado del Ejercicio</t>
         </is>
       </c>
-      <c r="E9" s="15" t="inlineStr"/>
-      <c r="F9" s="15" t="inlineStr"/>
-      <c r="G9" s="15" t="inlineStr"/>
-      <c r="H9" s="15" t="inlineStr"/>
-      <c r="I9" s="15" t="inlineStr"/>
-      <c r="J9" s="15" t="inlineStr"/>
-      <c r="K9" s="15" t="n">
-        <v>1300078</v>
-      </c>
-      <c r="L9" s="15" t="inlineStr"/>
-      <c r="M9" s="15" t="inlineStr"/>
-      <c r="N9" s="15" t="inlineStr"/>
-      <c r="O9" s="15" t="inlineStr"/>
-      <c r="P9" s="15" t="inlineStr"/>
-      <c r="Q9" s="15" t="inlineStr"/>
-      <c r="R9" s="15" t="inlineStr"/>
-      <c r="S9" s="15" t="inlineStr"/>
-      <c r="T9" s="15" t="n">
-        <v>1300078</v>
+      <c r="F9" s="15" t="n"/>
+      <c r="G9" s="15" t="n"/>
+      <c r="H9" s="15" t="n"/>
+      <c r="I9" s="15" t="n"/>
+      <c r="J9" s="15" t="n"/>
+      <c r="K9" s="15" t="n"/>
+      <c r="L9" s="15" t="n">
+        <v>1072728</v>
+      </c>
+      <c r="M9" s="15" t="n"/>
+      <c r="N9" s="15" t="n"/>
+      <c r="O9" s="15" t="n"/>
+      <c r="P9" s="15" t="n"/>
+      <c r="Q9" s="15" t="n"/>
+      <c r="R9" s="15" t="n"/>
+      <c r="S9" s="15" t="n"/>
+      <c r="T9" s="15" t="n"/>
+      <c r="U9" s="16" t="n">
+        <v>1072728</v>
       </c>
     </row>
     <row r="10">
@@ -18415,34 +18424,39 @@
       </c>
       <c r="D10" s="15" t="inlineStr">
         <is>
+          <t>4F0234</t>
+        </is>
+      </c>
+      <c r="E10" s="15" t="inlineStr">
+        <is>
           <t>7. Otro Resultado Integral</t>
         </is>
       </c>
-      <c r="E10" s="15" t="inlineStr"/>
-      <c r="F10" s="15" t="inlineStr"/>
-      <c r="G10" s="15" t="inlineStr"/>
-      <c r="H10" s="15" t="inlineStr"/>
-      <c r="I10" s="15" t="inlineStr"/>
-      <c r="J10" s="15" t="inlineStr"/>
-      <c r="K10" s="15" t="inlineStr"/>
-      <c r="L10" s="15" t="inlineStr"/>
-      <c r="M10" s="15" t="n">
-        <v>1604</v>
-      </c>
+      <c r="F10" s="15" t="n"/>
+      <c r="G10" s="15" t="n"/>
+      <c r="H10" s="15" t="n"/>
+      <c r="I10" s="15" t="n"/>
+      <c r="J10" s="15" t="n"/>
+      <c r="K10" s="15" t="n"/>
+      <c r="L10" s="15" t="n"/>
+      <c r="M10" s="15" t="n"/>
       <c r="N10" s="15" t="n">
-        <v>-13851</v>
-      </c>
-      <c r="O10" s="15" t="inlineStr"/>
-      <c r="P10" s="15" t="n">
-        <v>282210</v>
-      </c>
-      <c r="Q10" s="15" t="inlineStr"/>
-      <c r="R10" s="15" t="inlineStr"/>
-      <c r="S10" s="15" t="n">
-        <v>269963</v>
-      </c>
+        <v>3464</v>
+      </c>
+      <c r="O10" s="15" t="n">
+        <v>-7633</v>
+      </c>
+      <c r="P10" s="15" t="n"/>
+      <c r="Q10" s="15" t="n">
+        <v>100797</v>
+      </c>
+      <c r="R10" s="15" t="n"/>
+      <c r="S10" s="15" t="n"/>
       <c r="T10" s="15" t="n">
-        <v>269963</v>
+        <v>96628</v>
+      </c>
+      <c r="U10" s="16" t="n">
+        <v>96628</v>
       </c>
     </row>
     <row r="11">
@@ -18453,36 +18467,41 @@
       </c>
       <c r="D11" s="13" t="inlineStr">
         <is>
+          <t>4F0235</t>
+        </is>
+      </c>
+      <c r="E11" s="13" t="inlineStr">
+        <is>
           <t>8. Resultado Integral Total</t>
         </is>
       </c>
-      <c r="E11" s="13" t="inlineStr"/>
-      <c r="F11" s="13" t="inlineStr"/>
-      <c r="G11" s="13" t="inlineStr"/>
-      <c r="H11" s="13" t="inlineStr"/>
-      <c r="I11" s="13" t="inlineStr"/>
-      <c r="J11" s="13" t="inlineStr"/>
-      <c r="K11" s="13" t="n">
-        <v>1300078</v>
-      </c>
-      <c r="L11" s="13" t="inlineStr"/>
-      <c r="M11" s="13" t="n">
-        <v>1604</v>
-      </c>
+      <c r="F11" s="13" t="n"/>
+      <c r="G11" s="13" t="n"/>
+      <c r="H11" s="13" t="n"/>
+      <c r="I11" s="13" t="n"/>
+      <c r="J11" s="13" t="n"/>
+      <c r="K11" s="13" t="n"/>
+      <c r="L11" s="13" t="n">
+        <v>1072728</v>
+      </c>
+      <c r="M11" s="13" t="n"/>
       <c r="N11" s="13" t="n">
-        <v>-13851</v>
-      </c>
-      <c r="O11" s="13" t="inlineStr"/>
-      <c r="P11" s="13" t="n">
-        <v>282210</v>
-      </c>
-      <c r="Q11" s="13" t="inlineStr"/>
-      <c r="R11" s="13" t="inlineStr"/>
-      <c r="S11" s="13" t="n">
-        <v>269963</v>
-      </c>
+        <v>3464</v>
+      </c>
+      <c r="O11" s="13" t="n">
+        <v>-7633</v>
+      </c>
+      <c r="P11" s="13" t="n"/>
+      <c r="Q11" s="13" t="n">
+        <v>100797</v>
+      </c>
+      <c r="R11" s="13" t="n"/>
+      <c r="S11" s="13" t="n"/>
       <c r="T11" s="13" t="n">
-        <v>1570041</v>
+        <v>96628</v>
+      </c>
+      <c r="U11" s="16" t="n">
+        <v>1169356</v>
       </c>
     </row>
     <row r="12">
@@ -18493,25 +18512,29 @@
       </c>
       <c r="D12" s="15" t="inlineStr">
         <is>
+          <t>4FT010</t>
+        </is>
+      </c>
+      <c r="E12" s="15" t="inlineStr">
+        <is>
           <t>9. Cambios en el Patrimonio neto (no incluidos en el Resultado Integral)</t>
         </is>
       </c>
-      <c r="E12" s="15" t="inlineStr"/>
-      <c r="F12" s="15" t="inlineStr"/>
-      <c r="G12" s="15" t="inlineStr"/>
-      <c r="H12" s="15" t="inlineStr"/>
-      <c r="I12" s="15" t="inlineStr"/>
-      <c r="J12" s="15" t="inlineStr"/>
-      <c r="K12" s="15" t="inlineStr"/>
-      <c r="L12" s="15" t="inlineStr"/>
-      <c r="M12" s="15" t="inlineStr"/>
-      <c r="N12" s="15" t="inlineStr"/>
-      <c r="O12" s="15" t="inlineStr"/>
-      <c r="P12" s="15" t="inlineStr"/>
-      <c r="Q12" s="15" t="inlineStr"/>
-      <c r="R12" s="15" t="inlineStr"/>
-      <c r="S12" s="15" t="inlineStr"/>
-      <c r="T12" s="15" t="inlineStr"/>
+      <c r="F12" s="15" t="n"/>
+      <c r="G12" s="15" t="n"/>
+      <c r="H12" s="15" t="n"/>
+      <c r="I12" s="15" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="15" t="n"/>
+      <c r="L12" s="15" t="n"/>
+      <c r="M12" s="15" t="n"/>
+      <c r="N12" s="15" t="n"/>
+      <c r="O12" s="15" t="n"/>
+      <c r="P12" s="15" t="n"/>
+      <c r="Q12" s="15" t="n"/>
+      <c r="R12" s="15" t="n"/>
+      <c r="S12" s="15" t="n"/>
+      <c r="T12" s="15" t="n"/>
     </row>
     <row r="13">
       <c r="C13" s="14" t="inlineStr">
@@ -18521,25 +18544,29 @@
       </c>
       <c r="D13" s="15" t="inlineStr">
         <is>
+          <t>4F0236</t>
+        </is>
+      </c>
+      <c r="E13" s="15" t="inlineStr">
+        <is>
           <t>10. Transferencia de Resultado del Ejercicio a Resultados acumulados</t>
         </is>
       </c>
-      <c r="E13" s="15" t="inlineStr"/>
-      <c r="F13" s="15" t="inlineStr"/>
-      <c r="G13" s="15" t="inlineStr"/>
-      <c r="H13" s="15" t="inlineStr"/>
-      <c r="I13" s="15" t="inlineStr"/>
-      <c r="J13" s="15" t="inlineStr"/>
-      <c r="K13" s="15" t="inlineStr"/>
-      <c r="L13" s="15" t="inlineStr"/>
-      <c r="M13" s="15" t="inlineStr"/>
-      <c r="N13" s="15" t="inlineStr"/>
-      <c r="O13" s="15" t="inlineStr"/>
-      <c r="P13" s="15" t="inlineStr"/>
-      <c r="Q13" s="15" t="inlineStr"/>
-      <c r="R13" s="15" t="inlineStr"/>
-      <c r="S13" s="15" t="inlineStr"/>
-      <c r="T13" s="15" t="inlineStr"/>
+      <c r="F13" s="15" t="n"/>
+      <c r="G13" s="15" t="n"/>
+      <c r="H13" s="15" t="n"/>
+      <c r="I13" s="15" t="n"/>
+      <c r="J13" s="15" t="n"/>
+      <c r="K13" s="15" t="n"/>
+      <c r="L13" s="15" t="n"/>
+      <c r="M13" s="15" t="n"/>
+      <c r="N13" s="15" t="n"/>
+      <c r="O13" s="15" t="n"/>
+      <c r="P13" s="15" t="n"/>
+      <c r="Q13" s="15" t="n"/>
+      <c r="R13" s="15" t="n"/>
+      <c r="S13" s="15" t="n"/>
+      <c r="T13" s="15" t="n"/>
     </row>
     <row r="14">
       <c r="C14" s="14" t="inlineStr">
@@ -18549,28 +18576,33 @@
       </c>
       <c r="D14" s="15" t="inlineStr">
         <is>
+          <t>4F0204</t>
+        </is>
+      </c>
+      <c r="E14" s="15" t="inlineStr">
+        <is>
           <t>11. Dividendos en efectivo declarados</t>
         </is>
       </c>
-      <c r="E14" s="15" t="inlineStr"/>
-      <c r="F14" s="15" t="inlineStr"/>
-      <c r="G14" s="15" t="inlineStr"/>
-      <c r="H14" s="15" t="inlineStr"/>
-      <c r="I14" s="15" t="inlineStr"/>
-      <c r="J14" s="15" t="n">
-        <v>-427369</v>
-      </c>
-      <c r="K14" s="15" t="inlineStr"/>
-      <c r="L14" s="15" t="inlineStr"/>
-      <c r="M14" s="15" t="inlineStr"/>
-      <c r="N14" s="15" t="inlineStr"/>
-      <c r="O14" s="15" t="inlineStr"/>
-      <c r="P14" s="15" t="inlineStr"/>
-      <c r="Q14" s="15" t="inlineStr"/>
-      <c r="R14" s="15" t="inlineStr"/>
-      <c r="S14" s="15" t="inlineStr"/>
-      <c r="T14" s="15" t="n">
-        <v>-427369</v>
+      <c r="F14" s="15" t="n"/>
+      <c r="G14" s="15" t="n"/>
+      <c r="H14" s="15" t="n"/>
+      <c r="I14" s="15" t="n"/>
+      <c r="J14" s="15" t="n"/>
+      <c r="K14" s="15" t="n">
+        <v>-511788</v>
+      </c>
+      <c r="L14" s="15" t="n"/>
+      <c r="M14" s="15" t="n"/>
+      <c r="N14" s="15" t="n"/>
+      <c r="O14" s="15" t="n"/>
+      <c r="P14" s="15" t="n"/>
+      <c r="Q14" s="15" t="n"/>
+      <c r="R14" s="15" t="n"/>
+      <c r="S14" s="15" t="n"/>
+      <c r="T14" s="15" t="n"/>
+      <c r="U14" s="16" t="n">
+        <v>-511788</v>
       </c>
     </row>
     <row r="15">
@@ -18581,25 +18613,29 @@
       </c>
       <c r="D15" s="15" t="inlineStr">
         <is>
+          <t>4F0237</t>
+        </is>
+      </c>
+      <c r="E15" s="15" t="inlineStr">
+        <is>
           <t>12. Emisión de acciones de Capital (distinto a combinación de negocios)</t>
         </is>
       </c>
-      <c r="E15" s="15" t="inlineStr"/>
-      <c r="F15" s="15" t="inlineStr"/>
-      <c r="G15" s="15" t="inlineStr"/>
-      <c r="H15" s="15" t="inlineStr"/>
-      <c r="I15" s="15" t="inlineStr"/>
-      <c r="J15" s="15" t="inlineStr"/>
-      <c r="K15" s="15" t="inlineStr"/>
-      <c r="L15" s="15" t="inlineStr"/>
-      <c r="M15" s="15" t="inlineStr"/>
-      <c r="N15" s="15" t="inlineStr"/>
-      <c r="O15" s="15" t="inlineStr"/>
-      <c r="P15" s="15" t="inlineStr"/>
-      <c r="Q15" s="15" t="inlineStr"/>
-      <c r="R15" s="15" t="inlineStr"/>
-      <c r="S15" s="15" t="inlineStr"/>
-      <c r="T15" s="15" t="inlineStr"/>
+      <c r="F15" s="15" t="n"/>
+      <c r="G15" s="15" t="n"/>
+      <c r="H15" s="15" t="n"/>
+      <c r="I15" s="15" t="n"/>
+      <c r="J15" s="15" t="n"/>
+      <c r="K15" s="15" t="n"/>
+      <c r="L15" s="15" t="n"/>
+      <c r="M15" s="15" t="n"/>
+      <c r="N15" s="15" t="n"/>
+      <c r="O15" s="15" t="n"/>
+      <c r="P15" s="15" t="n"/>
+      <c r="Q15" s="15" t="n"/>
+      <c r="R15" s="15" t="n"/>
+      <c r="S15" s="15" t="n"/>
+      <c r="T15" s="15" t="n"/>
     </row>
     <row r="16">
       <c r="C16" s="12" t="inlineStr">
@@ -18609,25 +18645,29 @@
       </c>
       <c r="D16" s="13" t="inlineStr">
         <is>
+          <t>4F0238</t>
+        </is>
+      </c>
+      <c r="E16" s="13" t="inlineStr">
+        <is>
           <t>13. Reducción de Capital (distinto a combinación de negocios)</t>
         </is>
       </c>
-      <c r="E16" s="13" t="inlineStr"/>
-      <c r="F16" s="13" t="inlineStr"/>
-      <c r="G16" s="13" t="inlineStr"/>
-      <c r="H16" s="13" t="inlineStr"/>
-      <c r="I16" s="13" t="inlineStr"/>
-      <c r="J16" s="13" t="inlineStr"/>
-      <c r="K16" s="13" t="inlineStr"/>
-      <c r="L16" s="13" t="inlineStr"/>
-      <c r="M16" s="13" t="inlineStr"/>
-      <c r="N16" s="13" t="inlineStr"/>
-      <c r="O16" s="13" t="inlineStr"/>
-      <c r="P16" s="13" t="inlineStr"/>
-      <c r="Q16" s="13" t="inlineStr"/>
-      <c r="R16" s="13" t="inlineStr"/>
-      <c r="S16" s="13" t="inlineStr"/>
-      <c r="T16" s="13" t="inlineStr"/>
+      <c r="F16" s="13" t="n"/>
+      <c r="G16" s="13" t="n"/>
+      <c r="H16" s="13" t="n"/>
+      <c r="I16" s="13" t="n"/>
+      <c r="J16" s="13" t="n"/>
+      <c r="K16" s="13" t="n"/>
+      <c r="L16" s="13" t="n"/>
+      <c r="M16" s="13" t="n"/>
+      <c r="N16" s="13" t="n"/>
+      <c r="O16" s="13" t="n"/>
+      <c r="P16" s="13" t="n"/>
+      <c r="Q16" s="13" t="n"/>
+      <c r="R16" s="13" t="n"/>
+      <c r="S16" s="13" t="n"/>
+      <c r="T16" s="13" t="n"/>
     </row>
     <row r="17">
       <c r="C17" s="14" t="inlineStr">
@@ -18637,25 +18677,29 @@
       </c>
       <c r="D17" s="15" t="inlineStr">
         <is>
+          <t>4F0239</t>
+        </is>
+      </c>
+      <c r="E17" s="15" t="inlineStr">
+        <is>
           <t>14. Incremento (disminución) de Combinaciones de Negocios</t>
         </is>
       </c>
-      <c r="E17" s="15" t="inlineStr"/>
-      <c r="F17" s="15" t="inlineStr"/>
-      <c r="G17" s="15" t="inlineStr"/>
-      <c r="H17" s="15" t="inlineStr"/>
-      <c r="I17" s="15" t="inlineStr"/>
-      <c r="J17" s="15" t="inlineStr"/>
-      <c r="K17" s="15" t="inlineStr"/>
-      <c r="L17" s="15" t="inlineStr"/>
-      <c r="M17" s="15" t="inlineStr"/>
-      <c r="N17" s="15" t="inlineStr"/>
-      <c r="O17" s="15" t="inlineStr"/>
-      <c r="P17" s="15" t="inlineStr"/>
-      <c r="Q17" s="15" t="inlineStr"/>
-      <c r="R17" s="15" t="inlineStr"/>
-      <c r="S17" s="15" t="inlineStr"/>
-      <c r="T17" s="15" t="inlineStr"/>
+      <c r="F17" s="15" t="n"/>
+      <c r="G17" s="15" t="n"/>
+      <c r="H17" s="15" t="n"/>
+      <c r="I17" s="15" t="n"/>
+      <c r="J17" s="15" t="n"/>
+      <c r="K17" s="15" t="n"/>
+      <c r="L17" s="15" t="n"/>
+      <c r="M17" s="15" t="n"/>
+      <c r="N17" s="15" t="n"/>
+      <c r="O17" s="15" t="n"/>
+      <c r="P17" s="15" t="n"/>
+      <c r="Q17" s="15" t="n"/>
+      <c r="R17" s="15" t="n"/>
+      <c r="S17" s="15" t="n"/>
+      <c r="T17" s="15" t="n"/>
     </row>
     <row r="18">
       <c r="C18" s="14" t="inlineStr">
@@ -18665,28 +18709,33 @@
       </c>
       <c r="D18" s="15" t="inlineStr">
         <is>
+          <t>4F0240</t>
+        </is>
+      </c>
+      <c r="E18" s="15" t="inlineStr">
+        <is>
           <t>15. Incremento (disminución) por transacciones de acciones en tesorería</t>
         </is>
       </c>
-      <c r="E18" s="15" t="inlineStr"/>
-      <c r="F18" s="15" t="inlineStr"/>
-      <c r="G18" s="15" t="n">
-        <v>-122688</v>
-      </c>
-      <c r="H18" s="15" t="inlineStr"/>
-      <c r="I18" s="15" t="inlineStr"/>
-      <c r="J18" s="15" t="inlineStr"/>
-      <c r="K18" s="15" t="inlineStr"/>
-      <c r="L18" s="15" t="inlineStr"/>
-      <c r="M18" s="15" t="inlineStr"/>
-      <c r="N18" s="15" t="inlineStr"/>
-      <c r="O18" s="15" t="inlineStr"/>
-      <c r="P18" s="15" t="inlineStr"/>
-      <c r="Q18" s="15" t="inlineStr"/>
-      <c r="R18" s="15" t="inlineStr"/>
-      <c r="S18" s="15" t="inlineStr"/>
-      <c r="T18" s="15" t="n">
-        <v>-122688</v>
+      <c r="F18" s="15" t="n"/>
+      <c r="G18" s="15" t="n"/>
+      <c r="H18" s="15" t="n">
+        <v>-80946</v>
+      </c>
+      <c r="I18" s="15" t="n"/>
+      <c r="J18" s="15" t="n"/>
+      <c r="K18" s="15" t="n"/>
+      <c r="L18" s="15" t="n"/>
+      <c r="M18" s="15" t="n"/>
+      <c r="N18" s="15" t="n"/>
+      <c r="O18" s="15" t="n"/>
+      <c r="P18" s="15" t="n"/>
+      <c r="Q18" s="15" t="n"/>
+      <c r="R18" s="15" t="n"/>
+      <c r="S18" s="15" t="n"/>
+      <c r="T18" s="15" t="n"/>
+      <c r="U18" s="16" t="n">
+        <v>-80946</v>
       </c>
     </row>
     <row r="19">
@@ -18697,30 +18746,33 @@
       </c>
       <c r="D19" s="15" t="inlineStr">
         <is>
+          <t>4F0241</t>
+        </is>
+      </c>
+      <c r="E19" s="15" t="inlineStr">
+        <is>
           <t>16. Incremento (Disminución) por Transferencia y Otros Cambios</t>
         </is>
       </c>
-      <c r="E19" s="15" t="inlineStr"/>
-      <c r="F19" s="15" t="inlineStr"/>
-      <c r="G19" s="15" t="inlineStr"/>
-      <c r="H19" s="15" t="inlineStr"/>
-      <c r="I19" s="15" t="n">
-        <v>2300000</v>
-      </c>
-      <c r="J19" s="15" t="n">
-        <v>-2354966</v>
-      </c>
-      <c r="K19" s="15" t="inlineStr"/>
-      <c r="L19" s="15" t="inlineStr"/>
-      <c r="M19" s="15" t="inlineStr"/>
-      <c r="N19" s="15" t="inlineStr"/>
-      <c r="O19" s="15" t="inlineStr"/>
-      <c r="P19" s="15" t="inlineStr"/>
-      <c r="Q19" s="15" t="inlineStr"/>
-      <c r="R19" s="15" t="inlineStr"/>
-      <c r="S19" s="15" t="inlineStr"/>
-      <c r="T19" s="15" t="n">
-        <v>-54966</v>
+      <c r="F19" s="15" t="n"/>
+      <c r="G19" s="15" t="n"/>
+      <c r="H19" s="15" t="n"/>
+      <c r="I19" s="15" t="n"/>
+      <c r="J19" s="15" t="n"/>
+      <c r="K19" s="15" t="n">
+        <v>1127</v>
+      </c>
+      <c r="L19" s="15" t="n"/>
+      <c r="M19" s="15" t="n"/>
+      <c r="N19" s="15" t="n"/>
+      <c r="O19" s="15" t="n"/>
+      <c r="P19" s="15" t="n"/>
+      <c r="Q19" s="15" t="n"/>
+      <c r="R19" s="15" t="n"/>
+      <c r="S19" s="15" t="n"/>
+      <c r="T19" s="15" t="n"/>
+      <c r="U19" s="16" t="n">
+        <v>1127</v>
       </c>
     </row>
     <row r="20">
@@ -18731,42 +18783,45 @@
       </c>
       <c r="D20" s="15" t="inlineStr">
         <is>
+          <t>4F0242</t>
+        </is>
+      </c>
+      <c r="E20" s="15" t="inlineStr">
+        <is>
           <t>Total de cambios en el patrimonio</t>
         </is>
       </c>
-      <c r="E20" s="15" t="inlineStr"/>
-      <c r="F20" s="15" t="inlineStr"/>
-      <c r="G20" s="15" t="n">
-        <v>-122688</v>
-      </c>
-      <c r="H20" s="15" t="inlineStr"/>
-      <c r="I20" s="15" t="n">
-        <v>2300000</v>
-      </c>
-      <c r="J20" s="15" t="n">
-        <v>-2782335</v>
-      </c>
+      <c r="F20" s="15" t="n"/>
+      <c r="G20" s="15" t="n"/>
+      <c r="H20" s="15" t="n">
+        <v>-80946</v>
+      </c>
+      <c r="I20" s="15" t="n"/>
+      <c r="J20" s="15" t="n"/>
       <c r="K20" s="15" t="n">
-        <v>1300078</v>
-      </c>
-      <c r="L20" s="15" t="inlineStr"/>
-      <c r="M20" s="15" t="n">
-        <v>1604</v>
-      </c>
+        <v>-510661</v>
+      </c>
+      <c r="L20" s="15" t="n">
+        <v>1072728</v>
+      </c>
+      <c r="M20" s="15" t="n"/>
       <c r="N20" s="15" t="n">
-        <v>-13851</v>
-      </c>
-      <c r="O20" s="15" t="inlineStr"/>
-      <c r="P20" s="15" t="n">
-        <v>282210</v>
-      </c>
-      <c r="Q20" s="15" t="inlineStr"/>
-      <c r="R20" s="15" t="inlineStr"/>
-      <c r="S20" s="15" t="n">
-        <v>269963</v>
-      </c>
+        <v>3464</v>
+      </c>
+      <c r="O20" s="15" t="n">
+        <v>-7633</v>
+      </c>
+      <c r="P20" s="15" t="n"/>
+      <c r="Q20" s="15" t="n">
+        <v>100797</v>
+      </c>
+      <c r="R20" s="15" t="n"/>
+      <c r="S20" s="15" t="n"/>
       <c r="T20" s="15" t="n">
-        <v>965018</v>
+        <v>96628</v>
+      </c>
+      <c r="U20" s="16" t="n">
+        <v>577749</v>
       </c>
     </row>
     <row r="21">
@@ -18777,46 +18832,51 @@
       </c>
       <c r="D21" s="15" t="inlineStr">
         <is>
-          <t>SALDOS AL 31 DE DICIEMBRE DE 2024</t>
-        </is>
-      </c>
-      <c r="E21" s="15" t="n">
+          <t>4F02ST</t>
+        </is>
+      </c>
+      <c r="E21" s="15" t="inlineStr">
+        <is>
+          <t>SALDOS AL 31 DE DICIEMBRE DE 2023</t>
+        </is>
+      </c>
+      <c r="F21" s="15" t="n">
         <v>1038017</v>
       </c>
-      <c r="F21" s="15" t="n">
+      <c r="G21" s="15" t="n">
         <v>532771</v>
       </c>
-      <c r="G21" s="15" t="n">
-        <v>-206997</v>
-      </c>
-      <c r="H21" s="15" t="inlineStr"/>
-      <c r="I21" s="15" t="n">
-        <v>8300000</v>
-      </c>
+      <c r="H21" s="15" t="n">
+        <v>-84309</v>
+      </c>
+      <c r="I21" s="15" t="n"/>
       <c r="J21" s="15" t="n">
-        <v>139196</v>
+        <v>6000000</v>
       </c>
       <c r="K21" s="15" t="n">
-        <v>1300078</v>
-      </c>
-      <c r="L21" s="15" t="inlineStr"/>
-      <c r="M21" s="15" t="n">
-        <v>-3192</v>
-      </c>
+        <v>1848803</v>
+      </c>
+      <c r="L21" s="15" t="n">
+        <v>1072728</v>
+      </c>
+      <c r="M21" s="15" t="n"/>
       <c r="N21" s="15" t="n">
-        <v>-31039</v>
-      </c>
-      <c r="O21" s="15" t="inlineStr"/>
-      <c r="P21" s="15" t="n">
-        <v>-153599</v>
-      </c>
-      <c r="Q21" s="15" t="inlineStr"/>
-      <c r="R21" s="15" t="inlineStr"/>
-      <c r="S21" s="15" t="n">
-        <v>-187830</v>
-      </c>
+        <v>-4796</v>
+      </c>
+      <c r="O21" s="15" t="n">
+        <v>-17188</v>
+      </c>
+      <c r="P21" s="15" t="n"/>
+      <c r="Q21" s="15" t="n">
+        <v>-435809</v>
+      </c>
+      <c r="R21" s="15" t="n"/>
+      <c r="S21" s="15" t="n"/>
       <c r="T21" s="15" t="n">
-        <v>10915235</v>
+        <v>-457793</v>
+      </c>
+      <c r="U21" s="16" t="n">
+        <v>9950217</v>
       </c>
     </row>
     <row r="22">
@@ -19027,45 +19087,30 @@
       </c>
       <c r="D32" s="13" t="inlineStr">
         <is>
-          <t>SALDOS AL 1ERO DE ENERO DE 2023</t>
-        </is>
-      </c>
-      <c r="E32" s="13" t="n">
-        <v>1038017</v>
-      </c>
-      <c r="F32" s="13" t="n">
-        <v>532771</v>
-      </c>
-      <c r="G32" s="13" t="n">
-        <v>-3363</v>
-      </c>
-      <c r="H32" s="13" t="inlineStr"/>
-      <c r="I32" s="13" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="J32" s="13" t="n">
-        <v>2359464</v>
-      </c>
-      <c r="K32" s="13" t="inlineStr"/>
-      <c r="L32" s="13" t="inlineStr"/>
-      <c r="M32" s="13" t="n">
-        <v>-8260</v>
-      </c>
-      <c r="N32" s="13" t="n">
-        <v>-9555</v>
-      </c>
-      <c r="O32" s="13" t="inlineStr"/>
-      <c r="P32" s="13" t="n">
-        <v>-536606</v>
-      </c>
-      <c r="Q32" s="13" t="inlineStr"/>
-      <c r="R32" s="13" t="inlineStr"/>
-      <c r="S32" s="13" t="n">
-        <v>-554421</v>
-      </c>
-      <c r="T32" s="13" t="n">
-        <v>9372468</v>
-      </c>
+          <t>4FT009</t>
+        </is>
+      </c>
+      <c r="E32" s="13" t="inlineStr">
+        <is>
+          <t>5. Resultado Integral:</t>
+        </is>
+      </c>
+      <c r="F32" s="13" t="n"/>
+      <c r="G32" s="13" t="n"/>
+      <c r="H32" s="13" t="n"/>
+      <c r="I32" s="13" t="n"/>
+      <c r="J32" s="13" t="n"/>
+      <c r="K32" s="13" t="n"/>
+      <c r="L32" s="13" t="n"/>
+      <c r="M32" s="13" t="n"/>
+      <c r="N32" s="13" t="n"/>
+      <c r="O32" s="13" t="n"/>
+      <c r="P32" s="13" t="n"/>
+      <c r="Q32" s="13" t="n"/>
+      <c r="R32" s="13" t="n"/>
+      <c r="S32" s="13" t="n"/>
+      <c r="T32" s="13" t="n"/>
+      <c r="U32" s="16" t="n"/>
     </row>
     <row r="33">
       <c r="C33" s="14" t="inlineStr">
@@ -19075,25 +19120,34 @@
       </c>
       <c r="D33" s="15" t="inlineStr">
         <is>
-          <t>1. Ajustes por cambios en políticas contables</t>
-        </is>
-      </c>
-      <c r="E33" s="15" t="inlineStr"/>
-      <c r="F33" s="15" t="inlineStr"/>
-      <c r="G33" s="15" t="inlineStr"/>
-      <c r="H33" s="15" t="inlineStr"/>
-      <c r="I33" s="15" t="inlineStr"/>
-      <c r="J33" s="15" t="inlineStr"/>
-      <c r="K33" s="15" t="inlineStr"/>
-      <c r="L33" s="15" t="inlineStr"/>
-      <c r="M33" s="15" t="inlineStr"/>
-      <c r="N33" s="15" t="inlineStr"/>
-      <c r="O33" s="15" t="inlineStr"/>
-      <c r="P33" s="15" t="inlineStr"/>
-      <c r="Q33" s="15" t="inlineStr"/>
-      <c r="R33" s="15" t="inlineStr"/>
-      <c r="S33" s="15" t="inlineStr"/>
-      <c r="T33" s="15" t="inlineStr"/>
+          <t>4F0211</t>
+        </is>
+      </c>
+      <c r="E33" s="15" t="inlineStr">
+        <is>
+          <t>6. Resultado del Ejercicio</t>
+        </is>
+      </c>
+      <c r="F33" s="15" t="n"/>
+      <c r="G33" s="15" t="n"/>
+      <c r="H33" s="15" t="n"/>
+      <c r="I33" s="15" t="n"/>
+      <c r="J33" s="15" t="n"/>
+      <c r="K33" s="15" t="n"/>
+      <c r="L33" s="15" t="n">
+        <v>1660581</v>
+      </c>
+      <c r="M33" s="15" t="n"/>
+      <c r="N33" s="15" t="n"/>
+      <c r="O33" s="15" t="n"/>
+      <c r="P33" s="15" t="n"/>
+      <c r="Q33" s="15" t="n"/>
+      <c r="R33" s="15" t="n"/>
+      <c r="S33" s="15" t="n"/>
+      <c r="T33" s="15" t="n"/>
+      <c r="U33" s="16" t="n">
+        <v>1660581</v>
+      </c>
     </row>
     <row r="34">
       <c r="C34" s="14" t="inlineStr">
@@ -19103,25 +19157,40 @@
       </c>
       <c r="D34" s="15" t="inlineStr">
         <is>
-          <t>2. Ajustes por corrección de errores</t>
-        </is>
-      </c>
-      <c r="E34" s="15" t="inlineStr"/>
-      <c r="F34" s="15" t="inlineStr"/>
-      <c r="G34" s="15" t="inlineStr"/>
-      <c r="H34" s="15" t="inlineStr"/>
-      <c r="I34" s="15" t="inlineStr"/>
-      <c r="J34" s="15" t="inlineStr"/>
-      <c r="K34" s="15" t="inlineStr"/>
-      <c r="L34" s="15" t="inlineStr"/>
-      <c r="M34" s="15" t="inlineStr"/>
-      <c r="N34" s="15" t="inlineStr"/>
-      <c r="O34" s="15" t="inlineStr"/>
-      <c r="P34" s="15" t="inlineStr"/>
-      <c r="Q34" s="15" t="inlineStr"/>
-      <c r="R34" s="15" t="inlineStr"/>
-      <c r="S34" s="15" t="inlineStr"/>
-      <c r="T34" s="15" t="inlineStr"/>
+          <t>4F0234</t>
+        </is>
+      </c>
+      <c r="E34" s="15" t="inlineStr">
+        <is>
+          <t>7. Otro Resultado Integral</t>
+        </is>
+      </c>
+      <c r="F34" s="15" t="n"/>
+      <c r="G34" s="15" t="n"/>
+      <c r="H34" s="15" t="n"/>
+      <c r="I34" s="15" t="n"/>
+      <c r="J34" s="15" t="n"/>
+      <c r="K34" s="15" t="n"/>
+      <c r="L34" s="15" t="n"/>
+      <c r="M34" s="15" t="n"/>
+      <c r="N34" s="15" t="n">
+        <v>-4127</v>
+      </c>
+      <c r="O34" s="15" t="n">
+        <v>-33565</v>
+      </c>
+      <c r="P34" s="15" t="n"/>
+      <c r="Q34" s="15" t="n">
+        <v>-407288</v>
+      </c>
+      <c r="R34" s="15" t="n"/>
+      <c r="S34" s="15" t="n"/>
+      <c r="T34" s="15" t="n">
+        <v>-444980</v>
+      </c>
+      <c r="U34" s="16" t="n">
+        <v>-444980</v>
+      </c>
     </row>
     <row r="35">
       <c r="C35" s="12" t="inlineStr">
@@ -19131,44 +19200,41 @@
       </c>
       <c r="D35" s="13" t="inlineStr">
         <is>
-          <t>3. Saldo Inicial después de ajustes</t>
-        </is>
-      </c>
-      <c r="E35" s="13" t="n">
-        <v>1038017</v>
-      </c>
-      <c r="F35" s="13" t="n">
-        <v>532771</v>
-      </c>
-      <c r="G35" s="13" t="n">
-        <v>-3363</v>
-      </c>
-      <c r="H35" s="13" t="inlineStr"/>
-      <c r="I35" s="13" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="J35" s="13" t="n">
-        <v>2359464</v>
-      </c>
-      <c r="K35" s="13" t="inlineStr"/>
-      <c r="L35" s="13" t="inlineStr"/>
-      <c r="M35" s="13" t="n">
-        <v>-8260</v>
-      </c>
+          <t>4F0235</t>
+        </is>
+      </c>
+      <c r="E35" s="13" t="inlineStr">
+        <is>
+          <t>8. Resultado Integral Total</t>
+        </is>
+      </c>
+      <c r="F35" s="13" t="n"/>
+      <c r="G35" s="13" t="n"/>
+      <c r="H35" s="13" t="n"/>
+      <c r="I35" s="13" t="n"/>
+      <c r="J35" s="13" t="n"/>
+      <c r="K35" s="13" t="n"/>
+      <c r="L35" s="13" t="n">
+        <v>1660581</v>
+      </c>
+      <c r="M35" s="13" t="n"/>
       <c r="N35" s="13" t="n">
-        <v>-9555</v>
-      </c>
-      <c r="O35" s="13" t="inlineStr"/>
-      <c r="P35" s="13" t="n">
-        <v>-536606</v>
-      </c>
-      <c r="Q35" s="13" t="inlineStr"/>
-      <c r="R35" s="13" t="inlineStr"/>
-      <c r="S35" s="13" t="n">
-        <v>-554421</v>
-      </c>
+        <v>-4127</v>
+      </c>
+      <c r="O35" s="13" t="n">
+        <v>-33565</v>
+      </c>
+      <c r="P35" s="13" t="n"/>
+      <c r="Q35" s="13" t="n">
+        <v>-407288</v>
+      </c>
+      <c r="R35" s="13" t="n"/>
+      <c r="S35" s="13" t="n"/>
       <c r="T35" s="13" t="n">
-        <v>9372468</v>
+        <v>-444980</v>
+      </c>
+      <c r="U35" s="16" t="n">
+        <v>1215601</v>
       </c>
     </row>
     <row r="36">
@@ -19179,25 +19245,29 @@
       </c>
       <c r="D36" s="15" t="inlineStr">
         <is>
-          <t>4. Cambios en Patrimonio:</t>
-        </is>
-      </c>
-      <c r="E36" s="15" t="inlineStr"/>
-      <c r="F36" s="15" t="inlineStr"/>
-      <c r="G36" s="15" t="inlineStr"/>
-      <c r="H36" s="15" t="inlineStr"/>
-      <c r="I36" s="15" t="inlineStr"/>
-      <c r="J36" s="15" t="inlineStr"/>
-      <c r="K36" s="15" t="inlineStr"/>
-      <c r="L36" s="15" t="inlineStr"/>
-      <c r="M36" s="15" t="inlineStr"/>
-      <c r="N36" s="15" t="inlineStr"/>
-      <c r="O36" s="15" t="inlineStr"/>
-      <c r="P36" s="15" t="inlineStr"/>
-      <c r="Q36" s="15" t="inlineStr"/>
-      <c r="R36" s="15" t="inlineStr"/>
-      <c r="S36" s="15" t="inlineStr"/>
-      <c r="T36" s="15" t="inlineStr"/>
+          <t>4FT010</t>
+        </is>
+      </c>
+      <c r="E36" s="15" t="inlineStr">
+        <is>
+          <t>9. Cambios en el Patrimonio neto (no incluidos en el Resultado Integral)</t>
+        </is>
+      </c>
+      <c r="F36" s="15" t="n"/>
+      <c r="G36" s="15" t="n"/>
+      <c r="H36" s="15" t="n"/>
+      <c r="I36" s="15" t="n"/>
+      <c r="J36" s="15" t="n"/>
+      <c r="K36" s="15" t="n"/>
+      <c r="L36" s="15" t="n"/>
+      <c r="M36" s="15" t="n"/>
+      <c r="N36" s="15" t="n"/>
+      <c r="O36" s="15" t="n"/>
+      <c r="P36" s="15" t="n"/>
+      <c r="Q36" s="15" t="n"/>
+      <c r="R36" s="15" t="n"/>
+      <c r="S36" s="15" t="n"/>
+      <c r="T36" s="15" t="n"/>
     </row>
     <row r="37">
       <c r="C37" s="14" t="inlineStr">
@@ -19207,25 +19277,29 @@
       </c>
       <c r="D37" s="15" t="inlineStr">
         <is>
-          <t>5. Resultado Integral:</t>
-        </is>
-      </c>
-      <c r="E37" s="15" t="inlineStr"/>
-      <c r="F37" s="15" t="inlineStr"/>
-      <c r="G37" s="15" t="inlineStr"/>
-      <c r="H37" s="15" t="inlineStr"/>
-      <c r="I37" s="15" t="inlineStr"/>
-      <c r="J37" s="15" t="inlineStr"/>
-      <c r="K37" s="15" t="inlineStr"/>
-      <c r="L37" s="15" t="inlineStr"/>
-      <c r="M37" s="15" t="inlineStr"/>
-      <c r="N37" s="15" t="inlineStr"/>
-      <c r="O37" s="15" t="inlineStr"/>
-      <c r="P37" s="15" t="inlineStr"/>
-      <c r="Q37" s="15" t="inlineStr"/>
-      <c r="R37" s="15" t="inlineStr"/>
-      <c r="S37" s="15" t="inlineStr"/>
-      <c r="T37" s="15" t="inlineStr"/>
+          <t>4F0236</t>
+        </is>
+      </c>
+      <c r="E37" s="15" t="inlineStr">
+        <is>
+          <t>10. Transferencia de Resultado del Ejercicio a Resultados acumulados</t>
+        </is>
+      </c>
+      <c r="F37" s="15" t="n"/>
+      <c r="G37" s="15" t="n"/>
+      <c r="H37" s="15" t="n"/>
+      <c r="I37" s="15" t="n"/>
+      <c r="J37" s="15" t="n"/>
+      <c r="K37" s="15" t="n"/>
+      <c r="L37" s="15" t="n"/>
+      <c r="M37" s="15" t="n"/>
+      <c r="N37" s="15" t="n"/>
+      <c r="O37" s="15" t="n"/>
+      <c r="P37" s="15" t="n"/>
+      <c r="Q37" s="15" t="n"/>
+      <c r="R37" s="15" t="n"/>
+      <c r="S37" s="15" t="n"/>
+      <c r="T37" s="15" t="n"/>
     </row>
     <row r="38">
       <c r="C38" s="14" t="inlineStr">
@@ -19235,28 +19309,33 @@
       </c>
       <c r="D38" s="15" t="inlineStr">
         <is>
-          <t>6. Resultado del Ejercicio</t>
-        </is>
-      </c>
-      <c r="E38" s="15" t="inlineStr"/>
-      <c r="F38" s="15" t="inlineStr"/>
-      <c r="G38" s="15" t="inlineStr"/>
-      <c r="H38" s="15" t="inlineStr"/>
-      <c r="I38" s="15" t="inlineStr"/>
-      <c r="J38" s="15" t="inlineStr"/>
+          <t>4F0204</t>
+        </is>
+      </c>
+      <c r="E38" s="15" t="inlineStr">
+        <is>
+          <t>11. Dividendos en efectivo declarados</t>
+        </is>
+      </c>
+      <c r="F38" s="15" t="n"/>
+      <c r="G38" s="15" t="n"/>
+      <c r="H38" s="15" t="n"/>
+      <c r="I38" s="15" t="n"/>
+      <c r="J38" s="15" t="n"/>
       <c r="K38" s="15" t="n">
-        <v>1072728</v>
-      </c>
-      <c r="L38" s="15" t="inlineStr"/>
-      <c r="M38" s="15" t="inlineStr"/>
-      <c r="N38" s="15" t="inlineStr"/>
-      <c r="O38" s="15" t="inlineStr"/>
-      <c r="P38" s="15" t="inlineStr"/>
-      <c r="Q38" s="15" t="inlineStr"/>
-      <c r="R38" s="15" t="inlineStr"/>
-      <c r="S38" s="15" t="inlineStr"/>
-      <c r="T38" s="15" t="n">
-        <v>1072728</v>
+        <v>-751532</v>
+      </c>
+      <c r="L38" s="15" t="n"/>
+      <c r="M38" s="15" t="n"/>
+      <c r="N38" s="15" t="n"/>
+      <c r="O38" s="15" t="n"/>
+      <c r="P38" s="15" t="n"/>
+      <c r="Q38" s="15" t="n"/>
+      <c r="R38" s="15" t="n"/>
+      <c r="S38" s="15" t="n"/>
+      <c r="T38" s="15" t="n"/>
+      <c r="U38" s="16" t="n">
+        <v>-751532</v>
       </c>
     </row>
     <row r="39">
@@ -19267,35 +19346,30 @@
       </c>
       <c r="D39" s="15" t="inlineStr">
         <is>
-          <t>7. Otro Resultado Integral</t>
-        </is>
-      </c>
-      <c r="E39" s="15" t="inlineStr"/>
-      <c r="F39" s="15" t="inlineStr"/>
-      <c r="G39" s="15" t="inlineStr"/>
-      <c r="H39" s="15" t="inlineStr"/>
-      <c r="I39" s="15" t="inlineStr"/>
-      <c r="J39" s="15" t="inlineStr"/>
-      <c r="K39" s="15" t="inlineStr"/>
-      <c r="L39" s="15" t="inlineStr"/>
-      <c r="M39" s="15" t="n">
-        <v>3464</v>
-      </c>
-      <c r="N39" s="15" t="n">
-        <v>-7633</v>
-      </c>
-      <c r="O39" s="15" t="inlineStr"/>
-      <c r="P39" s="15" t="n">
-        <v>100797</v>
-      </c>
-      <c r="Q39" s="15" t="inlineStr"/>
-      <c r="R39" s="15" t="inlineStr"/>
-      <c r="S39" s="15" t="n">
-        <v>96628</v>
-      </c>
-      <c r="T39" s="15" t="n">
-        <v>96628</v>
-      </c>
+          <t>4F0237</t>
+        </is>
+      </c>
+      <c r="E39" s="15" t="inlineStr">
+        <is>
+          <t>12. Emisión de acciones de Capital (distinto a combinación de negocios)</t>
+        </is>
+      </c>
+      <c r="F39" s="15" t="n"/>
+      <c r="G39" s="15" t="n"/>
+      <c r="H39" s="15" t="n"/>
+      <c r="I39" s="15" t="n"/>
+      <c r="J39" s="15" t="n"/>
+      <c r="K39" s="15" t="n"/>
+      <c r="L39" s="15" t="n"/>
+      <c r="M39" s="15" t="n"/>
+      <c r="N39" s="15" t="n"/>
+      <c r="O39" s="15" t="n"/>
+      <c r="P39" s="15" t="n"/>
+      <c r="Q39" s="15" t="n"/>
+      <c r="R39" s="15" t="n"/>
+      <c r="S39" s="15" t="n"/>
+      <c r="T39" s="15" t="n"/>
+      <c r="U39" s="16" t="n"/>
     </row>
     <row r="40">
       <c r="C40" s="12" t="inlineStr">
@@ -19305,37 +19379,30 @@
       </c>
       <c r="D40" s="13" t="inlineStr">
         <is>
-          <t>8. Resultado Integral Total</t>
-        </is>
-      </c>
-      <c r="E40" s="13" t="inlineStr"/>
-      <c r="F40" s="13" t="inlineStr"/>
-      <c r="G40" s="13" t="inlineStr"/>
-      <c r="H40" s="13" t="inlineStr"/>
-      <c r="I40" s="13" t="inlineStr"/>
-      <c r="J40" s="13" t="inlineStr"/>
-      <c r="K40" s="13" t="n">
-        <v>1072728</v>
-      </c>
-      <c r="L40" s="13" t="inlineStr"/>
-      <c r="M40" s="13" t="n">
-        <v>3464</v>
-      </c>
-      <c r="N40" s="13" t="n">
-        <v>-7633</v>
-      </c>
-      <c r="O40" s="13" t="inlineStr"/>
-      <c r="P40" s="13" t="n">
-        <v>100797</v>
-      </c>
-      <c r="Q40" s="13" t="inlineStr"/>
-      <c r="R40" s="13" t="inlineStr"/>
-      <c r="S40" s="13" t="n">
-        <v>96628</v>
-      </c>
-      <c r="T40" s="13" t="n">
-        <v>1169356</v>
-      </c>
+          <t>4F0238</t>
+        </is>
+      </c>
+      <c r="E40" s="13" t="inlineStr">
+        <is>
+          <t>13. Reducción de Capital (distinto a combinación de negocios)</t>
+        </is>
+      </c>
+      <c r="F40" s="13" t="n"/>
+      <c r="G40" s="13" t="n"/>
+      <c r="H40" s="13" t="n"/>
+      <c r="I40" s="13" t="n"/>
+      <c r="J40" s="13" t="n"/>
+      <c r="K40" s="13" t="n"/>
+      <c r="L40" s="13" t="n"/>
+      <c r="M40" s="13" t="n"/>
+      <c r="N40" s="13" t="n"/>
+      <c r="O40" s="13" t="n"/>
+      <c r="P40" s="13" t="n"/>
+      <c r="Q40" s="13" t="n"/>
+      <c r="R40" s="13" t="n"/>
+      <c r="S40" s="13" t="n"/>
+      <c r="T40" s="13" t="n"/>
+      <c r="U40" s="16" t="n"/>
     </row>
     <row r="41">
       <c r="C41" s="14" t="inlineStr">
@@ -19345,25 +19412,29 @@
       </c>
       <c r="D41" s="15" t="inlineStr">
         <is>
-          <t>9. Cambios en el Patrimonio neto (no incluidos en el Resultado Integral)</t>
-        </is>
-      </c>
-      <c r="E41" s="15" t="inlineStr"/>
-      <c r="F41" s="15" t="inlineStr"/>
-      <c r="G41" s="15" t="inlineStr"/>
-      <c r="H41" s="15" t="inlineStr"/>
-      <c r="I41" s="15" t="inlineStr"/>
-      <c r="J41" s="15" t="inlineStr"/>
-      <c r="K41" s="15" t="inlineStr"/>
-      <c r="L41" s="15" t="inlineStr"/>
-      <c r="M41" s="15" t="inlineStr"/>
-      <c r="N41" s="15" t="inlineStr"/>
-      <c r="O41" s="15" t="inlineStr"/>
-      <c r="P41" s="15" t="inlineStr"/>
-      <c r="Q41" s="15" t="inlineStr"/>
-      <c r="R41" s="15" t="inlineStr"/>
-      <c r="S41" s="15" t="inlineStr"/>
-      <c r="T41" s="15" t="inlineStr"/>
+          <t>4F0239</t>
+        </is>
+      </c>
+      <c r="E41" s="15" t="inlineStr">
+        <is>
+          <t>14. Incremento (disminución) de Combinaciones de Negocios</t>
+        </is>
+      </c>
+      <c r="F41" s="15" t="n"/>
+      <c r="G41" s="15" t="n"/>
+      <c r="H41" s="15" t="n"/>
+      <c r="I41" s="15" t="n"/>
+      <c r="J41" s="15" t="n"/>
+      <c r="K41" s="15" t="n"/>
+      <c r="L41" s="15" t="n"/>
+      <c r="M41" s="15" t="n"/>
+      <c r="N41" s="15" t="n"/>
+      <c r="O41" s="15" t="n"/>
+      <c r="P41" s="15" t="n"/>
+      <c r="Q41" s="15" t="n"/>
+      <c r="R41" s="15" t="n"/>
+      <c r="S41" s="15" t="n"/>
+      <c r="T41" s="15" t="n"/>
     </row>
     <row r="42">
       <c r="C42" s="14" t="inlineStr">
@@ -19373,25 +19444,29 @@
       </c>
       <c r="D42" s="15" t="inlineStr">
         <is>
-          <t>10. Transferencia de Resultado del Ejercicio a Resultados acumulados</t>
-        </is>
-      </c>
-      <c r="E42" s="15" t="inlineStr"/>
-      <c r="F42" s="15" t="inlineStr"/>
-      <c r="G42" s="15" t="inlineStr"/>
-      <c r="H42" s="15" t="inlineStr"/>
-      <c r="I42" s="15" t="inlineStr"/>
-      <c r="J42" s="15" t="inlineStr"/>
-      <c r="K42" s="15" t="inlineStr"/>
-      <c r="L42" s="15" t="inlineStr"/>
-      <c r="M42" s="15" t="inlineStr"/>
-      <c r="N42" s="15" t="inlineStr"/>
-      <c r="O42" s="15" t="inlineStr"/>
-      <c r="P42" s="15" t="inlineStr"/>
-      <c r="Q42" s="15" t="inlineStr"/>
-      <c r="R42" s="15" t="inlineStr"/>
-      <c r="S42" s="15" t="inlineStr"/>
-      <c r="T42" s="15" t="inlineStr"/>
+          <t>4F0240</t>
+        </is>
+      </c>
+      <c r="E42" s="15" t="inlineStr">
+        <is>
+          <t>15. Incremento (disminución) por transacciones de acciones en tesorería</t>
+        </is>
+      </c>
+      <c r="F42" s="15" t="n"/>
+      <c r="G42" s="15" t="n"/>
+      <c r="H42" s="15" t="n"/>
+      <c r="I42" s="15" t="n"/>
+      <c r="J42" s="15" t="n"/>
+      <c r="K42" s="15" t="n"/>
+      <c r="L42" s="15" t="n"/>
+      <c r="M42" s="15" t="n"/>
+      <c r="N42" s="15" t="n"/>
+      <c r="O42" s="15" t="n"/>
+      <c r="P42" s="15" t="n"/>
+      <c r="Q42" s="15" t="n"/>
+      <c r="R42" s="15" t="n"/>
+      <c r="S42" s="15" t="n"/>
+      <c r="T42" s="15" t="n"/>
     </row>
     <row r="43">
       <c r="C43" s="14" t="inlineStr">
@@ -19401,28 +19476,35 @@
       </c>
       <c r="D43" s="15" t="inlineStr">
         <is>
-          <t>11. Dividendos en efectivo declarados</t>
-        </is>
-      </c>
-      <c r="E43" s="15" t="inlineStr"/>
-      <c r="F43" s="15" t="inlineStr"/>
-      <c r="G43" s="15" t="inlineStr"/>
-      <c r="H43" s="15" t="inlineStr"/>
-      <c r="I43" s="15" t="inlineStr"/>
+          <t>4F0241</t>
+        </is>
+      </c>
+      <c r="E43" s="15" t="inlineStr">
+        <is>
+          <t>16. Incremento (Disminución) por Transferencia y Otros Cambios</t>
+        </is>
+      </c>
+      <c r="F43" s="15" t="n"/>
+      <c r="G43" s="15" t="n"/>
+      <c r="H43" s="15" t="n"/>
+      <c r="I43" s="15" t="n"/>
       <c r="J43" s="15" t="n">
-        <v>-511788</v>
-      </c>
-      <c r="K43" s="15" t="inlineStr"/>
-      <c r="L43" s="15" t="inlineStr"/>
-      <c r="M43" s="15" t="inlineStr"/>
-      <c r="N43" s="15" t="inlineStr"/>
-      <c r="O43" s="15" t="inlineStr"/>
-      <c r="P43" s="15" t="inlineStr"/>
-      <c r="Q43" s="15" t="inlineStr"/>
-      <c r="R43" s="15" t="inlineStr"/>
-      <c r="S43" s="15" t="inlineStr"/>
-      <c r="T43" s="15" t="n">
-        <v>-511788</v>
+        <v>800000</v>
+      </c>
+      <c r="K43" s="15" t="n">
+        <v>-776931</v>
+      </c>
+      <c r="L43" s="15" t="n"/>
+      <c r="M43" s="15" t="n"/>
+      <c r="N43" s="15" t="n"/>
+      <c r="O43" s="15" t="n"/>
+      <c r="P43" s="15" t="n"/>
+      <c r="Q43" s="15" t="n"/>
+      <c r="R43" s="15" t="n"/>
+      <c r="S43" s="15" t="n"/>
+      <c r="T43" s="15" t="n"/>
+      <c r="U43" s="16" t="n">
+        <v>23069</v>
       </c>
     </row>
     <row r="44">
@@ -19433,25 +19515,46 @@
       </c>
       <c r="D44" s="15" t="inlineStr">
         <is>
-          <t>12. Emisión de acciones de Capital (distinto a combinación de negocios)</t>
-        </is>
-      </c>
-      <c r="E44" s="15" t="inlineStr"/>
-      <c r="F44" s="15" t="inlineStr"/>
-      <c r="G44" s="15" t="inlineStr"/>
-      <c r="H44" s="15" t="inlineStr"/>
-      <c r="I44" s="15" t="inlineStr"/>
-      <c r="J44" s="15" t="inlineStr"/>
-      <c r="K44" s="15" t="inlineStr"/>
-      <c r="L44" s="15" t="inlineStr"/>
-      <c r="M44" s="15" t="inlineStr"/>
-      <c r="N44" s="15" t="inlineStr"/>
-      <c r="O44" s="15" t="inlineStr"/>
-      <c r="P44" s="15" t="inlineStr"/>
-      <c r="Q44" s="15" t="inlineStr"/>
-      <c r="R44" s="15" t="inlineStr"/>
-      <c r="S44" s="15" t="inlineStr"/>
-      <c r="T44" s="15" t="inlineStr"/>
+          <t>4F0242</t>
+        </is>
+      </c>
+      <c r="E44" s="15" t="inlineStr">
+        <is>
+          <t>Total de cambios en el patrimonio</t>
+        </is>
+      </c>
+      <c r="F44" s="15" t="n"/>
+      <c r="G44" s="15" t="n"/>
+      <c r="H44" s="15" t="n"/>
+      <c r="I44" s="15" t="n"/>
+      <c r="J44" s="15" t="n">
+        <v>800000</v>
+      </c>
+      <c r="K44" s="15" t="n">
+        <v>-1528463</v>
+      </c>
+      <c r="L44" s="15" t="n">
+        <v>1660581</v>
+      </c>
+      <c r="M44" s="15" t="n"/>
+      <c r="N44" s="15" t="n">
+        <v>-4127</v>
+      </c>
+      <c r="O44" s="15" t="n">
+        <v>-33565</v>
+      </c>
+      <c r="P44" s="15" t="n"/>
+      <c r="Q44" s="15" t="n">
+        <v>-407288</v>
+      </c>
+      <c r="R44" s="15" t="n"/>
+      <c r="S44" s="15" t="n"/>
+      <c r="T44" s="15" t="n">
+        <v>-444980</v>
+      </c>
+      <c r="U44" s="16" t="n">
+        <v>487138</v>
+      </c>
     </row>
     <row r="45">
       <c r="C45" s="14" t="inlineStr">
@@ -19461,25 +19564,52 @@
       </c>
       <c r="D45" s="15" t="inlineStr">
         <is>
-          <t>13. Reducción de Capital (distinto a combinación de negocios)</t>
-        </is>
-      </c>
-      <c r="E45" s="15" t="inlineStr"/>
-      <c r="F45" s="15" t="inlineStr"/>
-      <c r="G45" s="15" t="inlineStr"/>
-      <c r="H45" s="15" t="inlineStr"/>
-      <c r="I45" s="15" t="inlineStr"/>
-      <c r="J45" s="15" t="inlineStr"/>
-      <c r="K45" s="15" t="inlineStr"/>
-      <c r="L45" s="15" t="inlineStr"/>
-      <c r="M45" s="15" t="inlineStr"/>
-      <c r="N45" s="15" t="inlineStr"/>
-      <c r="O45" s="15" t="inlineStr"/>
-      <c r="P45" s="15" t="inlineStr"/>
-      <c r="Q45" s="15" t="inlineStr"/>
-      <c r="R45" s="15" t="inlineStr"/>
-      <c r="S45" s="15" t="inlineStr"/>
-      <c r="T45" s="15" t="inlineStr"/>
+          <t>4F02ST</t>
+        </is>
+      </c>
+      <c r="E45" s="15" t="inlineStr">
+        <is>
+          <t>SALDOS AL 31 DE DICIEMBRE DE 2022</t>
+        </is>
+      </c>
+      <c r="F45" s="15" t="n">
+        <v>1038017</v>
+      </c>
+      <c r="G45" s="15" t="n">
+        <v>532771</v>
+      </c>
+      <c r="H45" s="15" t="n">
+        <v>-3363</v>
+      </c>
+      <c r="I45" s="15" t="n"/>
+      <c r="J45" s="15" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="K45" s="15" t="n">
+        <v>1376449</v>
+      </c>
+      <c r="L45" s="15" t="n">
+        <v>1660581</v>
+      </c>
+      <c r="M45" s="15" t="n"/>
+      <c r="N45" s="15" t="n">
+        <v>-8260</v>
+      </c>
+      <c r="O45" s="15" t="n">
+        <v>-9555</v>
+      </c>
+      <c r="P45" s="15" t="n"/>
+      <c r="Q45" s="15" t="n">
+        <v>-595465</v>
+      </c>
+      <c r="R45" s="15" t="n"/>
+      <c r="S45" s="15" t="n"/>
+      <c r="T45" s="15" t="n">
+        <v>-613280</v>
+      </c>
+      <c r="U45" s="16" t="n">
+        <v>9991175</v>
+      </c>
     </row>
     <row r="46">
       <c r="C46" s="14" t="inlineStr">
@@ -19487,27 +19617,23 @@
           <t>4F0139</t>
         </is>
       </c>
-      <c r="D46" s="15" t="inlineStr">
-        <is>
-          <t>14. Incremento (disminución) de Combinaciones de Negocios</t>
-        </is>
-      </c>
-      <c r="E46" s="15" t="inlineStr"/>
-      <c r="F46" s="15" t="inlineStr"/>
-      <c r="G46" s="15" t="inlineStr"/>
-      <c r="H46" s="15" t="inlineStr"/>
-      <c r="I46" s="15" t="inlineStr"/>
-      <c r="J46" s="15" t="inlineStr"/>
-      <c r="K46" s="15" t="inlineStr"/>
-      <c r="L46" s="15" t="inlineStr"/>
-      <c r="M46" s="15" t="inlineStr"/>
-      <c r="N46" s="15" t="inlineStr"/>
-      <c r="O46" s="15" t="inlineStr"/>
-      <c r="P46" s="15" t="inlineStr"/>
-      <c r="Q46" s="15" t="inlineStr"/>
-      <c r="R46" s="15" t="inlineStr"/>
-      <c r="S46" s="15" t="inlineStr"/>
-      <c r="T46" s="15" t="inlineStr"/>
+      <c r="D46" s="15" t="n"/>
+      <c r="E46" s="15" t="n"/>
+      <c r="F46" s="15" t="n"/>
+      <c r="G46" s="15" t="n"/>
+      <c r="H46" s="15" t="n"/>
+      <c r="I46" s="15" t="n"/>
+      <c r="J46" s="15" t="n"/>
+      <c r="K46" s="15" t="n"/>
+      <c r="L46" s="15" t="n"/>
+      <c r="M46" s="15" t="n"/>
+      <c r="N46" s="15" t="n"/>
+      <c r="O46" s="15" t="n"/>
+      <c r="P46" s="15" t="n"/>
+      <c r="Q46" s="15" t="n"/>
+      <c r="R46" s="15" t="n"/>
+      <c r="S46" s="15" t="n"/>
+      <c r="T46" s="15" t="n"/>
     </row>
     <row r="47">
       <c r="C47" s="14" t="inlineStr">
@@ -19515,31 +19641,23 @@
           <t>4F0140</t>
         </is>
       </c>
-      <c r="D47" s="15" t="inlineStr">
-        <is>
-          <t>15. Incremento (disminución) por transacciones de acciones en tesorería</t>
-        </is>
-      </c>
-      <c r="E47" s="15" t="inlineStr"/>
-      <c r="F47" s="15" t="inlineStr"/>
-      <c r="G47" s="15" t="n">
-        <v>-80946</v>
-      </c>
-      <c r="H47" s="15" t="inlineStr"/>
-      <c r="I47" s="15" t="inlineStr"/>
-      <c r="J47" s="15" t="inlineStr"/>
-      <c r="K47" s="15" t="inlineStr"/>
-      <c r="L47" s="15" t="inlineStr"/>
-      <c r="M47" s="15" t="inlineStr"/>
-      <c r="N47" s="15" t="inlineStr"/>
-      <c r="O47" s="15" t="inlineStr"/>
-      <c r="P47" s="15" t="inlineStr"/>
-      <c r="Q47" s="15" t="inlineStr"/>
-      <c r="R47" s="15" t="inlineStr"/>
-      <c r="S47" s="15" t="inlineStr"/>
-      <c r="T47" s="15" t="n">
-        <v>-80946</v>
-      </c>
+      <c r="D47" s="15" t="n"/>
+      <c r="E47" s="15" t="n"/>
+      <c r="F47" s="15" t="n"/>
+      <c r="G47" s="15" t="n"/>
+      <c r="H47" s="15" t="n"/>
+      <c r="I47" s="15" t="n"/>
+      <c r="J47" s="15" t="n"/>
+      <c r="K47" s="15" t="n"/>
+      <c r="L47" s="15" t="n"/>
+      <c r="M47" s="15" t="n"/>
+      <c r="N47" s="15" t="n"/>
+      <c r="O47" s="15" t="n"/>
+      <c r="P47" s="15" t="n"/>
+      <c r="Q47" s="15" t="n"/>
+      <c r="R47" s="15" t="n"/>
+      <c r="S47" s="15" t="n"/>
+      <c r="T47" s="15" t="n"/>
     </row>
     <row r="48">
       <c r="C48" s="14" t="inlineStr">
@@ -19547,31 +19665,24 @@
           <t>4F0141</t>
         </is>
       </c>
-      <c r="D48" s="15" t="inlineStr">
-        <is>
-          <t>16. Incremento (Disminución) por Transferencia y Otros Cambios</t>
-        </is>
-      </c>
-      <c r="E48" s="15" t="inlineStr"/>
-      <c r="F48" s="15" t="inlineStr"/>
-      <c r="G48" s="15" t="inlineStr"/>
-      <c r="H48" s="15" t="inlineStr"/>
-      <c r="I48" s="15" t="inlineStr"/>
-      <c r="J48" s="15" t="n">
-        <v>1127</v>
-      </c>
-      <c r="K48" s="15" t="inlineStr"/>
-      <c r="L48" s="15" t="inlineStr"/>
-      <c r="M48" s="15" t="inlineStr"/>
-      <c r="N48" s="15" t="inlineStr"/>
-      <c r="O48" s="15" t="inlineStr"/>
-      <c r="P48" s="15" t="inlineStr"/>
-      <c r="Q48" s="15" t="inlineStr"/>
-      <c r="R48" s="15" t="inlineStr"/>
-      <c r="S48" s="15" t="inlineStr"/>
-      <c r="T48" s="15" t="n">
-        <v>1127</v>
-      </c>
+      <c r="D48" s="15" t="n"/>
+      <c r="E48" s="15" t="n"/>
+      <c r="F48" s="15" t="n"/>
+      <c r="G48" s="15" t="n"/>
+      <c r="H48" s="15" t="n"/>
+      <c r="I48" s="15" t="n"/>
+      <c r="J48" s="15" t="n"/>
+      <c r="K48" s="15" t="n"/>
+      <c r="L48" s="15" t="n"/>
+      <c r="M48" s="15" t="n"/>
+      <c r="N48" s="15" t="n"/>
+      <c r="O48" s="15" t="n"/>
+      <c r="P48" s="15" t="n"/>
+      <c r="Q48" s="15" t="n"/>
+      <c r="R48" s="15" t="n"/>
+      <c r="S48" s="15" t="n"/>
+      <c r="T48" s="15" t="n"/>
+      <c r="U48" s="16" t="n"/>
     </row>
     <row r="49">
       <c r="C49" s="14" t="inlineStr">
@@ -19579,43 +19690,24 @@
           <t>4F0142</t>
         </is>
       </c>
-      <c r="D49" s="15" t="inlineStr">
-        <is>
-          <t>Total de cambios en el patrimonio</t>
-        </is>
-      </c>
-      <c r="E49" s="15" t="inlineStr"/>
-      <c r="F49" s="15" t="inlineStr"/>
-      <c r="G49" s="15" t="n">
-        <v>-80946</v>
-      </c>
-      <c r="H49" s="15" t="inlineStr"/>
-      <c r="I49" s="15" t="inlineStr"/>
-      <c r="J49" s="15" t="n">
-        <v>-510661</v>
-      </c>
-      <c r="K49" s="15" t="n">
-        <v>1072728</v>
-      </c>
-      <c r="L49" s="15" t="inlineStr"/>
-      <c r="M49" s="15" t="n">
-        <v>3464</v>
-      </c>
-      <c r="N49" s="15" t="n">
-        <v>-7633</v>
-      </c>
-      <c r="O49" s="15" t="inlineStr"/>
-      <c r="P49" s="15" t="n">
-        <v>100797</v>
-      </c>
-      <c r="Q49" s="15" t="inlineStr"/>
-      <c r="R49" s="15" t="inlineStr"/>
-      <c r="S49" s="15" t="n">
-        <v>96628</v>
-      </c>
-      <c r="T49" s="15" t="n">
-        <v>577749</v>
-      </c>
+      <c r="D49" s="15" t="n"/>
+      <c r="E49" s="15" t="n"/>
+      <c r="F49" s="15" t="n"/>
+      <c r="G49" s="15" t="n"/>
+      <c r="H49" s="15" t="n"/>
+      <c r="I49" s="15" t="n"/>
+      <c r="J49" s="15" t="n"/>
+      <c r="K49" s="15" t="n"/>
+      <c r="L49" s="15" t="n"/>
+      <c r="M49" s="15" t="n"/>
+      <c r="N49" s="15" t="n"/>
+      <c r="O49" s="15" t="n"/>
+      <c r="P49" s="15" t="n"/>
+      <c r="Q49" s="15" t="n"/>
+      <c r="R49" s="15" t="n"/>
+      <c r="S49" s="15" t="n"/>
+      <c r="T49" s="15" t="n"/>
+      <c r="U49" s="16" t="n"/>
     </row>
     <row r="50">
       <c r="C50" s="14" t="inlineStr">
@@ -19623,49 +19715,24 @@
           <t>4F01ST</t>
         </is>
       </c>
-      <c r="D50" s="15" t="inlineStr">
-        <is>
-          <t>SALDOS AL 31 DE DICIEMBRE DE 2023</t>
-        </is>
-      </c>
-      <c r="E50" s="15" t="n">
-        <v>1038017</v>
-      </c>
-      <c r="F50" s="15" t="n">
-        <v>532771</v>
-      </c>
-      <c r="G50" s="15" t="n">
-        <v>-84309</v>
-      </c>
-      <c r="H50" s="15" t="inlineStr"/>
-      <c r="I50" s="15" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="J50" s="15" t="n">
-        <v>1848803</v>
-      </c>
-      <c r="K50" s="15" t="n">
-        <v>1072728</v>
-      </c>
-      <c r="L50" s="15" t="inlineStr"/>
-      <c r="M50" s="15" t="n">
-        <v>-4796</v>
-      </c>
-      <c r="N50" s="15" t="n">
-        <v>-17188</v>
-      </c>
-      <c r="O50" s="15" t="inlineStr"/>
-      <c r="P50" s="15" t="n">
-        <v>-435809</v>
-      </c>
-      <c r="Q50" s="15" t="inlineStr"/>
-      <c r="R50" s="15" t="inlineStr"/>
-      <c r="S50" s="15" t="n">
-        <v>-457793</v>
-      </c>
-      <c r="T50" s="15" t="n">
-        <v>9950217</v>
-      </c>
+      <c r="D50" s="15" t="n"/>
+      <c r="E50" s="15" t="n"/>
+      <c r="F50" s="15" t="n"/>
+      <c r="G50" s="15" t="n"/>
+      <c r="H50" s="15" t="n"/>
+      <c r="I50" s="15" t="n"/>
+      <c r="J50" s="15" t="n"/>
+      <c r="K50" s="15" t="n"/>
+      <c r="L50" s="15" t="n"/>
+      <c r="M50" s="15" t="n"/>
+      <c r="N50" s="15" t="n"/>
+      <c r="O50" s="15" t="n"/>
+      <c r="P50" s="15" t="n"/>
+      <c r="Q50" s="15" t="n"/>
+      <c r="R50" s="15" t="n"/>
+      <c r="S50" s="15" t="n"/>
+      <c r="T50" s="15" t="n"/>
+      <c r="U50" s="16" t="n"/>
     </row>
     <row r="51">
       <c r="C51" s="14" t="inlineStr">
@@ -19673,47 +19740,24 @@
           <t>4F0201</t>
         </is>
       </c>
-      <c r="D51" s="15" t="inlineStr">
-        <is>
-          <t>SALDOS AL 1ERO DE ENERO DE 2024</t>
-        </is>
-      </c>
-      <c r="E51" s="15" t="n">
-        <v>1038017</v>
-      </c>
-      <c r="F51" s="15" t="n">
-        <v>532771</v>
-      </c>
-      <c r="G51" s="15" t="n">
-        <v>-84309</v>
-      </c>
-      <c r="H51" s="15" t="inlineStr"/>
-      <c r="I51" s="15" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="J51" s="15" t="n">
-        <v>2921531</v>
-      </c>
-      <c r="K51" s="15" t="inlineStr"/>
-      <c r="L51" s="15" t="inlineStr"/>
-      <c r="M51" s="15" t="n">
-        <v>-4796</v>
-      </c>
-      <c r="N51" s="15" t="n">
-        <v>-17188</v>
-      </c>
-      <c r="O51" s="15" t="inlineStr"/>
-      <c r="P51" s="15" t="n">
-        <v>-435809</v>
-      </c>
-      <c r="Q51" s="15" t="inlineStr"/>
-      <c r="R51" s="15" t="inlineStr"/>
-      <c r="S51" s="15" t="n">
-        <v>-457793</v>
-      </c>
-      <c r="T51" s="15" t="n">
-        <v>9950217</v>
-      </c>
+      <c r="D51" s="15" t="n"/>
+      <c r="E51" s="15" t="n"/>
+      <c r="F51" s="15" t="n"/>
+      <c r="G51" s="15" t="n"/>
+      <c r="H51" s="15" t="n"/>
+      <c r="I51" s="15" t="n"/>
+      <c r="J51" s="15" t="n"/>
+      <c r="K51" s="15" t="n"/>
+      <c r="L51" s="15" t="n"/>
+      <c r="M51" s="15" t="n"/>
+      <c r="N51" s="15" t="n"/>
+      <c r="O51" s="15" t="n"/>
+      <c r="P51" s="15" t="n"/>
+      <c r="Q51" s="15" t="n"/>
+      <c r="R51" s="15" t="n"/>
+      <c r="S51" s="15" t="n"/>
+      <c r="T51" s="15" t="n"/>
+      <c r="U51" s="16" t="n"/>
     </row>
     <row r="52">
       <c r="C52" s="14" t="inlineStr">
@@ -19721,27 +19765,23 @@
           <t>4F0231</t>
         </is>
       </c>
-      <c r="D52" s="15" t="inlineStr">
-        <is>
-          <t>1. Ajustes por cambios en políticas contables</t>
-        </is>
-      </c>
-      <c r="E52" s="15" t="inlineStr"/>
-      <c r="F52" s="15" t="inlineStr"/>
-      <c r="G52" s="15" t="inlineStr"/>
-      <c r="H52" s="15" t="inlineStr"/>
-      <c r="I52" s="15" t="inlineStr"/>
-      <c r="J52" s="15" t="inlineStr"/>
-      <c r="K52" s="15" t="inlineStr"/>
-      <c r="L52" s="15" t="inlineStr"/>
-      <c r="M52" s="15" t="inlineStr"/>
-      <c r="N52" s="15" t="inlineStr"/>
-      <c r="O52" s="15" t="inlineStr"/>
-      <c r="P52" s="15" t="inlineStr"/>
-      <c r="Q52" s="15" t="inlineStr"/>
-      <c r="R52" s="15" t="inlineStr"/>
-      <c r="S52" s="15" t="inlineStr"/>
-      <c r="T52" s="15" t="inlineStr"/>
+      <c r="D52" s="15" t="n"/>
+      <c r="E52" s="15" t="n"/>
+      <c r="F52" s="15" t="n"/>
+      <c r="G52" s="15" t="n"/>
+      <c r="H52" s="15" t="n"/>
+      <c r="I52" s="15" t="n"/>
+      <c r="J52" s="15" t="n"/>
+      <c r="K52" s="15" t="n"/>
+      <c r="L52" s="15" t="n"/>
+      <c r="M52" s="15" t="n"/>
+      <c r="N52" s="15" t="n"/>
+      <c r="O52" s="15" t="n"/>
+      <c r="P52" s="15" t="n"/>
+      <c r="Q52" s="15" t="n"/>
+      <c r="R52" s="15" t="n"/>
+      <c r="S52" s="15" t="n"/>
+      <c r="T52" s="15" t="n"/>
     </row>
     <row r="53">
       <c r="C53" s="14" t="inlineStr">
@@ -19749,27 +19789,23 @@
           <t>4F0232</t>
         </is>
       </c>
-      <c r="D53" s="15" t="inlineStr">
-        <is>
-          <t>2. Ajustes por corrección de errores</t>
-        </is>
-      </c>
-      <c r="E53" s="15" t="inlineStr"/>
-      <c r="F53" s="15" t="inlineStr"/>
-      <c r="G53" s="15" t="inlineStr"/>
-      <c r="H53" s="15" t="inlineStr"/>
-      <c r="I53" s="15" t="inlineStr"/>
-      <c r="J53" s="15" t="inlineStr"/>
-      <c r="K53" s="15" t="inlineStr"/>
-      <c r="L53" s="15" t="inlineStr"/>
-      <c r="M53" s="15" t="inlineStr"/>
-      <c r="N53" s="15" t="inlineStr"/>
-      <c r="O53" s="15" t="inlineStr"/>
-      <c r="P53" s="15" t="inlineStr"/>
-      <c r="Q53" s="15" t="inlineStr"/>
-      <c r="R53" s="15" t="inlineStr"/>
-      <c r="S53" s="15" t="inlineStr"/>
-      <c r="T53" s="15" t="inlineStr"/>
+      <c r="D53" s="15" t="n"/>
+      <c r="E53" s="15" t="n"/>
+      <c r="F53" s="15" t="n"/>
+      <c r="G53" s="15" t="n"/>
+      <c r="H53" s="15" t="n"/>
+      <c r="I53" s="15" t="n"/>
+      <c r="J53" s="15" t="n"/>
+      <c r="K53" s="15" t="n"/>
+      <c r="L53" s="15" t="n"/>
+      <c r="M53" s="15" t="n"/>
+      <c r="N53" s="15" t="n"/>
+      <c r="O53" s="15" t="n"/>
+      <c r="P53" s="15" t="n"/>
+      <c r="Q53" s="15" t="n"/>
+      <c r="R53" s="15" t="n"/>
+      <c r="S53" s="15" t="n"/>
+      <c r="T53" s="15" t="n"/>
     </row>
     <row r="54">
       <c r="C54" s="12" t="inlineStr">
@@ -19777,47 +19813,24 @@
           <t>4F0233</t>
         </is>
       </c>
-      <c r="D54" s="13" t="inlineStr">
-        <is>
-          <t>3. Saldo Inicial después de ajustes</t>
-        </is>
-      </c>
-      <c r="E54" s="13" t="n">
-        <v>1038017</v>
-      </c>
-      <c r="F54" s="13" t="n">
-        <v>532771</v>
-      </c>
-      <c r="G54" s="13" t="n">
-        <v>-84309</v>
-      </c>
-      <c r="H54" s="13" t="inlineStr"/>
-      <c r="I54" s="13" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="J54" s="13" t="n">
-        <v>2921531</v>
-      </c>
-      <c r="K54" s="13" t="inlineStr"/>
-      <c r="L54" s="13" t="inlineStr"/>
-      <c r="M54" s="13" t="n">
-        <v>-4796</v>
-      </c>
-      <c r="N54" s="13" t="n">
-        <v>-17188</v>
-      </c>
-      <c r="O54" s="13" t="inlineStr"/>
-      <c r="P54" s="13" t="n">
-        <v>-435809</v>
-      </c>
-      <c r="Q54" s="13" t="inlineStr"/>
-      <c r="R54" s="13" t="inlineStr"/>
-      <c r="S54" s="13" t="n">
-        <v>-457793</v>
-      </c>
-      <c r="T54" s="13" t="n">
-        <v>9950217</v>
-      </c>
+      <c r="D54" s="13" t="n"/>
+      <c r="E54" s="13" t="n"/>
+      <c r="F54" s="13" t="n"/>
+      <c r="G54" s="13" t="n"/>
+      <c r="H54" s="13" t="n"/>
+      <c r="I54" s="13" t="n"/>
+      <c r="J54" s="13" t="n"/>
+      <c r="K54" s="13" t="n"/>
+      <c r="L54" s="13" t="n"/>
+      <c r="M54" s="13" t="n"/>
+      <c r="N54" s="13" t="n"/>
+      <c r="O54" s="13" t="n"/>
+      <c r="P54" s="13" t="n"/>
+      <c r="Q54" s="13" t="n"/>
+      <c r="R54" s="13" t="n"/>
+      <c r="S54" s="13" t="n"/>
+      <c r="T54" s="13" t="n"/>
+      <c r="U54" s="16" t="n"/>
     </row>
     <row r="55">
       <c r="C55" s="12" t="inlineStr">
@@ -19825,32 +19838,36 @@
           <t>4FT008</t>
         </is>
       </c>
-      <c r="D55" s="13" t="inlineStr">
-        <is>
-          <t>4. Cambios en Patrimonio:</t>
-        </is>
-      </c>
-      <c r="E55" s="13" t="inlineStr"/>
-      <c r="F55" s="13" t="inlineStr"/>
-      <c r="G55" s="13" t="inlineStr"/>
-      <c r="H55" s="13" t="inlineStr"/>
-      <c r="I55" s="13" t="inlineStr"/>
-      <c r="J55" s="13" t="inlineStr"/>
-      <c r="K55" s="13" t="inlineStr"/>
-      <c r="L55" s="13" t="inlineStr"/>
-      <c r="M55" s="13" t="inlineStr"/>
-      <c r="N55" s="13" t="inlineStr"/>
-      <c r="O55" s="13" t="inlineStr"/>
-      <c r="P55" s="13" t="inlineStr"/>
-      <c r="Q55" s="13" t="inlineStr"/>
-      <c r="R55" s="13" t="inlineStr"/>
-      <c r="S55" s="13" t="inlineStr"/>
-      <c r="T55" s="13" t="inlineStr"/>
+      <c r="D55" s="13" t="n"/>
+      <c r="E55" s="13" t="n"/>
+      <c r="F55" s="13" t="n"/>
+      <c r="G55" s="13" t="n"/>
+      <c r="H55" s="13" t="n"/>
+      <c r="I55" s="13" t="n"/>
+      <c r="J55" s="13" t="n"/>
+      <c r="K55" s="13" t="n"/>
+      <c r="L55" s="13" t="n"/>
+      <c r="M55" s="13" t="n"/>
+      <c r="N55" s="13" t="n"/>
+      <c r="O55" s="13" t="n"/>
+      <c r="P55" s="13" t="n"/>
+      <c r="Q55" s="13" t="n"/>
+      <c r="R55" s="13" t="n"/>
+      <c r="S55" s="13" t="n"/>
+      <c r="T55" s="13" t="n"/>
     </row>
     <row r="56">
       <c r="C56" s="12" t="n"/>
-      <c r="D56" s="13" t="n"/>
-      <c r="E56" s="13" t="n"/>
+      <c r="D56" s="13" t="inlineStr">
+        <is>
+          <t>4FT009</t>
+        </is>
+      </c>
+      <c r="E56" s="13" t="inlineStr">
+        <is>
+          <t>5. Resultado Integral:</t>
+        </is>
+      </c>
       <c r="F56" s="13" t="n"/>
       <c r="G56" s="13" t="n"/>
       <c r="H56" s="13" t="n"/>
@@ -19866,18 +19883,29 @@
       <c r="R56" s="13" t="n"/>
       <c r="S56" s="13" t="n"/>
       <c r="T56" s="13" t="n"/>
+      <c r="U56" s="16" t="n"/>
     </row>
     <row r="57">
       <c r="C57" s="14" t="n"/>
-      <c r="D57" s="15" t="n"/>
-      <c r="E57" s="15" t="n"/>
+      <c r="D57" s="15" t="inlineStr">
+        <is>
+          <t>4F0211</t>
+        </is>
+      </c>
+      <c r="E57" s="15" t="inlineStr">
+        <is>
+          <t>6. Resultado del Ejercicio</t>
+        </is>
+      </c>
       <c r="F57" s="15" t="n"/>
       <c r="G57" s="15" t="n"/>
       <c r="H57" s="15" t="n"/>
       <c r="I57" s="15" t="n"/>
       <c r="J57" s="15" t="n"/>
       <c r="K57" s="15" t="n"/>
-      <c r="L57" s="15" t="n"/>
+      <c r="L57" s="15" t="n">
+        <v>1790155</v>
+      </c>
       <c r="M57" s="15" t="n"/>
       <c r="N57" s="15" t="n"/>
       <c r="O57" s="15" t="n"/>
@@ -19886,11 +19914,22 @@
       <c r="R57" s="15" t="n"/>
       <c r="S57" s="15" t="n"/>
       <c r="T57" s="15" t="n"/>
+      <c r="U57" s="16" t="n">
+        <v>1790155</v>
+      </c>
     </row>
     <row r="58">
       <c r="C58" s="14" t="n"/>
-      <c r="D58" s="15" t="n"/>
-      <c r="E58" s="15" t="n"/>
+      <c r="D58" s="15" t="inlineStr">
+        <is>
+          <t>4F0234</t>
+        </is>
+      </c>
+      <c r="E58" s="15" t="inlineStr">
+        <is>
+          <t>7. Otro Resultado Integral</t>
+        </is>
+      </c>
       <c r="F58" s="15" t="n"/>
       <c r="G58" s="15" t="n"/>
       <c r="H58" s="15" t="n"/>
@@ -19899,38 +19938,78 @@
       <c r="K58" s="15" t="n"/>
       <c r="L58" s="15" t="n"/>
       <c r="M58" s="15" t="n"/>
-      <c r="N58" s="15" t="n"/>
-      <c r="O58" s="15" t="n"/>
+      <c r="N58" s="15" t="n">
+        <v>-277630</v>
+      </c>
+      <c r="O58" s="15" t="n">
+        <v>44735</v>
+      </c>
       <c r="P58" s="15" t="n"/>
-      <c r="Q58" s="15" t="n"/>
+      <c r="Q58" s="15" t="n">
+        <v>-772178</v>
+      </c>
       <c r="R58" s="15" t="n"/>
       <c r="S58" s="15" t="n"/>
-      <c r="T58" s="15" t="n"/>
+      <c r="T58" s="15" t="n">
+        <v>-1005073</v>
+      </c>
+      <c r="U58" s="16" t="n">
+        <v>-1005073</v>
+      </c>
     </row>
     <row r="59">
       <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="13" t="n"/>
+      <c r="D59" s="13" t="inlineStr">
+        <is>
+          <t>4F0235</t>
+        </is>
+      </c>
+      <c r="E59" s="13" t="inlineStr">
+        <is>
+          <t>8. Resultado Integral Total</t>
+        </is>
+      </c>
       <c r="F59" s="13" t="n"/>
       <c r="G59" s="13" t="n"/>
       <c r="H59" s="13" t="n"/>
       <c r="I59" s="13" t="n"/>
       <c r="J59" s="13" t="n"/>
       <c r="K59" s="13" t="n"/>
-      <c r="L59" s="13" t="n"/>
+      <c r="L59" s="13" t="n">
+        <v>1790155</v>
+      </c>
       <c r="M59" s="13" t="n"/>
-      <c r="N59" s="13" t="n"/>
-      <c r="O59" s="13" t="n"/>
+      <c r="N59" s="13" t="n">
+        <v>-277630</v>
+      </c>
+      <c r="O59" s="13" t="n">
+        <v>44735</v>
+      </c>
       <c r="P59" s="13" t="n"/>
-      <c r="Q59" s="13" t="n"/>
+      <c r="Q59" s="13" t="n">
+        <v>-772178</v>
+      </c>
       <c r="R59" s="13" t="n"/>
       <c r="S59" s="13" t="n"/>
-      <c r="T59" s="13" t="n"/>
+      <c r="T59" s="13" t="n">
+        <v>-1005073</v>
+      </c>
+      <c r="U59" s="16" t="n">
+        <v>785082</v>
+      </c>
     </row>
     <row r="60">
       <c r="C60" s="14" t="n"/>
-      <c r="D60" s="15" t="n"/>
-      <c r="E60" s="15" t="n"/>
+      <c r="D60" s="15" t="inlineStr">
+        <is>
+          <t>4FT010</t>
+        </is>
+      </c>
+      <c r="E60" s="15" t="inlineStr">
+        <is>
+          <t>9. Cambios en el Patrimonio neto (no incluidos en el Resultado Integral)</t>
+        </is>
+      </c>
       <c r="F60" s="15" t="n"/>
       <c r="G60" s="15" t="n"/>
       <c r="H60" s="15" t="n"/>
@@ -19949,8 +20028,16 @@
     </row>
     <row r="61">
       <c r="C61" s="14" t="n"/>
-      <c r="D61" s="15" t="n"/>
-      <c r="E61" s="15" t="n"/>
+      <c r="D61" s="15" t="inlineStr">
+        <is>
+          <t>4F0236</t>
+        </is>
+      </c>
+      <c r="E61" s="15" t="inlineStr">
+        <is>
+          <t>10. Transferencia de Resultado del Ejercicio a Resultados acumulados</t>
+        </is>
+      </c>
       <c r="F61" s="15" t="n"/>
       <c r="G61" s="15" t="n"/>
       <c r="H61" s="15" t="n"/>
@@ -19969,14 +20056,24 @@
     </row>
     <row r="62">
       <c r="C62" s="14" t="n"/>
-      <c r="D62" s="15" t="n"/>
-      <c r="E62" s="15" t="n"/>
+      <c r="D62" s="15" t="inlineStr">
+        <is>
+          <t>4F0204</t>
+        </is>
+      </c>
+      <c r="E62" s="15" t="inlineStr">
+        <is>
+          <t>11. Dividendos en efectivo declarados</t>
+        </is>
+      </c>
       <c r="F62" s="15" t="n"/>
       <c r="G62" s="15" t="n"/>
       <c r="H62" s="15" t="n"/>
       <c r="I62" s="15" t="n"/>
       <c r="J62" s="15" t="n"/>
-      <c r="K62" s="15" t="n"/>
+      <c r="K62" s="15" t="n">
+        <v>-633853</v>
+      </c>
       <c r="L62" s="15" t="n"/>
       <c r="M62" s="15" t="n"/>
       <c r="N62" s="15" t="n"/>
@@ -19986,11 +20083,22 @@
       <c r="R62" s="15" t="n"/>
       <c r="S62" s="15" t="n"/>
       <c r="T62" s="15" t="n"/>
+      <c r="U62" s="16" t="n">
+        <v>-633853</v>
+      </c>
     </row>
     <row r="63">
       <c r="C63" s="14" t="n"/>
-      <c r="D63" s="15" t="n"/>
-      <c r="E63" s="15" t="n"/>
+      <c r="D63" s="15" t="inlineStr">
+        <is>
+          <t>4F0237</t>
+        </is>
+      </c>
+      <c r="E63" s="15" t="inlineStr">
+        <is>
+          <t>12. Emisión de acciones de Capital (distinto a combinación de negocios)</t>
+        </is>
+      </c>
       <c r="F63" s="15" t="n"/>
       <c r="G63" s="15" t="n"/>
       <c r="H63" s="15" t="n"/>
@@ -20006,11 +20114,20 @@
       <c r="R63" s="15" t="n"/>
       <c r="S63" s="15" t="n"/>
       <c r="T63" s="15" t="n"/>
+      <c r="U63" s="16" t="n"/>
     </row>
     <row r="64">
       <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="13" t="n"/>
+      <c r="D64" s="13" t="inlineStr">
+        <is>
+          <t>4F0238</t>
+        </is>
+      </c>
+      <c r="E64" s="13" t="inlineStr">
+        <is>
+          <t>13. Reducción de Capital (distinto a combinación de negocios)</t>
+        </is>
+      </c>
       <c r="F64" s="13" t="n"/>
       <c r="G64" s="13" t="n"/>
       <c r="H64" s="13" t="n"/>
@@ -20026,11 +20143,20 @@
       <c r="R64" s="13" t="n"/>
       <c r="S64" s="13" t="n"/>
       <c r="T64" s="13" t="n"/>
+      <c r="U64" s="16" t="n"/>
     </row>
     <row r="65">
       <c r="C65" s="14" t="n"/>
-      <c r="D65" s="15" t="n"/>
-      <c r="E65" s="15" t="n"/>
+      <c r="D65" s="15" t="inlineStr">
+        <is>
+          <t>4F0239</t>
+        </is>
+      </c>
+      <c r="E65" s="15" t="inlineStr">
+        <is>
+          <t>14. Incremento (disminución) de Combinaciones de Negocios</t>
+        </is>
+      </c>
       <c r="F65" s="15" t="n"/>
       <c r="G65" s="15" t="n"/>
       <c r="H65" s="15" t="n"/>
@@ -20049,11 +20175,21 @@
     </row>
     <row r="66">
       <c r="C66" s="14" t="n"/>
-      <c r="D66" s="15" t="n"/>
-      <c r="E66" s="15" t="n"/>
+      <c r="D66" s="15" t="inlineStr">
+        <is>
+          <t>4F0240</t>
+        </is>
+      </c>
+      <c r="E66" s="15" t="inlineStr">
+        <is>
+          <t>15. Incremento (disminución) por transacciones de acciones en tesorería</t>
+        </is>
+      </c>
       <c r="F66" s="15" t="n"/>
       <c r="G66" s="15" t="n"/>
-      <c r="H66" s="15" t="n"/>
+      <c r="H66" s="15" t="n">
+        <v>-594</v>
+      </c>
       <c r="I66" s="15" t="n"/>
       <c r="J66" s="15" t="n"/>
       <c r="K66" s="15" t="n"/>
@@ -20066,17 +20202,30 @@
       <c r="R66" s="15" t="n"/>
       <c r="S66" s="15" t="n"/>
       <c r="T66" s="15" t="n"/>
+      <c r="U66" s="16" t="n">
+        <v>-594</v>
+      </c>
     </row>
     <row r="67">
       <c r="C67" s="14" t="n"/>
-      <c r="D67" s="15" t="n"/>
-      <c r="E67" s="15" t="n"/>
+      <c r="D67" s="15" t="inlineStr">
+        <is>
+          <t>4F0241</t>
+        </is>
+      </c>
+      <c r="E67" s="15" t="inlineStr">
+        <is>
+          <t>16. Incremento (Disminución) por Transferencia y Otros Cambios</t>
+        </is>
+      </c>
       <c r="F67" s="15" t="n"/>
       <c r="G67" s="15" t="n"/>
       <c r="H67" s="15" t="n"/>
       <c r="I67" s="15" t="n"/>
       <c r="J67" s="15" t="n"/>
-      <c r="K67" s="15" t="n"/>
+      <c r="K67" s="15" t="n">
+        <v>445293</v>
+      </c>
       <c r="L67" s="15" t="n"/>
       <c r="M67" s="15" t="n"/>
       <c r="N67" s="15" t="n"/>
@@ -20086,46 +20235,105 @@
       <c r="R67" s="15" t="n"/>
       <c r="S67" s="15" t="n"/>
       <c r="T67" s="15" t="n"/>
+      <c r="U67" s="16" t="n">
+        <v>445293</v>
+      </c>
     </row>
     <row r="68">
       <c r="C68" s="14" t="n"/>
-      <c r="D68" s="15" t="n"/>
-      <c r="E68" s="15" t="n"/>
+      <c r="D68" s="15" t="inlineStr">
+        <is>
+          <t>4F0242</t>
+        </is>
+      </c>
+      <c r="E68" s="15" t="inlineStr">
+        <is>
+          <t>Total de cambios en el patrimonio</t>
+        </is>
+      </c>
       <c r="F68" s="15" t="n"/>
       <c r="G68" s="15" t="n"/>
-      <c r="H68" s="15" t="n"/>
+      <c r="H68" s="15" t="n">
+        <v>-594</v>
+      </c>
       <c r="I68" s="15" t="n"/>
       <c r="J68" s="15" t="n"/>
-      <c r="K68" s="15" t="n"/>
-      <c r="L68" s="15" t="n"/>
+      <c r="K68" s="15" t="n">
+        <v>-188560</v>
+      </c>
+      <c r="L68" s="15" t="n">
+        <v>1790155</v>
+      </c>
       <c r="M68" s="15" t="n"/>
-      <c r="N68" s="15" t="n"/>
-      <c r="O68" s="15" t="n"/>
+      <c r="N68" s="15" t="n">
+        <v>-277630</v>
+      </c>
+      <c r="O68" s="15" t="n">
+        <v>44735</v>
+      </c>
       <c r="P68" s="15" t="n"/>
-      <c r="Q68" s="15" t="n"/>
+      <c r="Q68" s="15" t="n">
+        <v>-772178</v>
+      </c>
       <c r="R68" s="15" t="n"/>
       <c r="S68" s="15" t="n"/>
-      <c r="T68" s="15" t="n"/>
+      <c r="T68" s="15" t="n">
+        <v>-1005073</v>
+      </c>
+      <c r="U68" s="16" t="n">
+        <v>595928</v>
+      </c>
     </row>
     <row r="69">
       <c r="C69" s="14" t="n"/>
-      <c r="D69" s="15" t="n"/>
-      <c r="E69" s="15" t="n"/>
-      <c r="F69" s="15" t="n"/>
-      <c r="G69" s="15" t="n"/>
-      <c r="H69" s="15" t="n"/>
+      <c r="D69" s="15" t="inlineStr">
+        <is>
+          <t>4F02ST</t>
+        </is>
+      </c>
+      <c r="E69" s="15" t="inlineStr">
+        <is>
+          <t>SALDOS AL 31 DE DICIEMBRE DE 2021</t>
+        </is>
+      </c>
+      <c r="F69" s="15" t="n">
+        <v>1038017</v>
+      </c>
+      <c r="G69" s="15" t="n">
+        <v>532771</v>
+      </c>
+      <c r="H69" s="15" t="n">
+        <v>-3363</v>
+      </c>
       <c r="I69" s="15" t="n"/>
-      <c r="J69" s="15" t="n"/>
-      <c r="K69" s="15" t="n"/>
-      <c r="L69" s="15" t="n"/>
+      <c r="J69" s="15" t="n">
+        <v>5200000</v>
+      </c>
+      <c r="K69" s="15" t="n">
+        <v>1114757</v>
+      </c>
+      <c r="L69" s="15" t="n">
+        <v>1790155</v>
+      </c>
       <c r="M69" s="15" t="n"/>
-      <c r="N69" s="15" t="n"/>
-      <c r="O69" s="15" t="n"/>
+      <c r="N69" s="15" t="n">
+        <v>-4133</v>
+      </c>
+      <c r="O69" s="15" t="n">
+        <v>24010</v>
+      </c>
       <c r="P69" s="15" t="n"/>
-      <c r="Q69" s="15" t="n"/>
+      <c r="Q69" s="15" t="n">
+        <v>-188177</v>
+      </c>
       <c r="R69" s="15" t="n"/>
       <c r="S69" s="15" t="n"/>
-      <c r="T69" s="15" t="n"/>
+      <c r="T69" s="15" t="n">
+        <v>-168300</v>
+      </c>
+      <c r="U69" s="16" t="n">
+        <v>9504037</v>
+      </c>
     </row>
     <row r="70">
       <c r="C70" s="14" t="n"/>
@@ -20166,6 +20374,7 @@
       <c r="R71" s="15" t="n"/>
       <c r="S71" s="15" t="n"/>
       <c r="T71" s="15" t="n"/>
+      <c r="U71" s="16" t="n"/>
     </row>
     <row r="72">
       <c r="C72" s="14" t="n"/>
@@ -20186,6 +20395,7 @@
       <c r="R72" s="15" t="n"/>
       <c r="S72" s="15" t="n"/>
       <c r="T72" s="15" t="n"/>
+      <c r="U72" s="16" t="n"/>
     </row>
     <row r="73">
       <c r="C73" s="14" t="n"/>
@@ -20206,6 +20416,7 @@
       <c r="R73" s="15" t="n"/>
       <c r="S73" s="15" t="n"/>
       <c r="T73" s="15" t="n"/>
+      <c r="U73" s="16" t="n"/>
     </row>
     <row r="74">
       <c r="C74" s="14" t="n"/>
@@ -20226,6 +20437,7 @@
       <c r="R74" s="15" t="n"/>
       <c r="S74" s="15" t="n"/>
       <c r="T74" s="15" t="n"/>
+      <c r="U74" s="16" t="n"/>
     </row>
     <row r="75">
       <c r="C75" s="14" t="n"/>
@@ -20246,6 +20458,7 @@
       <c r="R75" s="15" t="n"/>
       <c r="S75" s="15" t="n"/>
       <c r="T75" s="15" t="n"/>
+      <c r="U75" s="16" t="n"/>
     </row>
     <row r="76">
       <c r="C76" s="14" t="n"/>
@@ -20306,6 +20519,7 @@
       <c r="R78" s="13" t="n"/>
       <c r="S78" s="13" t="n"/>
       <c r="T78" s="13" t="n"/>
+      <c r="U78" s="16" t="n"/>
     </row>
     <row r="79">
       <c r="C79" s="12" t="n"/>
@@ -20329,8 +20543,16 @@
     </row>
     <row r="80">
       <c r="C80" s="12" t="n"/>
-      <c r="D80" s="13" t="n"/>
-      <c r="E80" s="13" t="n"/>
+      <c r="D80" s="13" t="inlineStr">
+        <is>
+          <t>4FT009</t>
+        </is>
+      </c>
+      <c r="E80" s="13" t="inlineStr">
+        <is>
+          <t>5. Resultado Integral:</t>
+        </is>
+      </c>
       <c r="F80" s="13" t="n"/>
       <c r="G80" s="13" t="n"/>
       <c r="H80" s="13" t="n"/>
@@ -20346,18 +20568,29 @@
       <c r="R80" s="13" t="n"/>
       <c r="S80" s="13" t="n"/>
       <c r="T80" s="13" t="n"/>
+      <c r="U80" s="16" t="n"/>
     </row>
     <row r="81">
       <c r="C81" s="14" t="n"/>
-      <c r="D81" s="15" t="n"/>
-      <c r="E81" s="15" t="n"/>
+      <c r="D81" s="15" t="inlineStr">
+        <is>
+          <t>4F0211</t>
+        </is>
+      </c>
+      <c r="E81" s="15" t="inlineStr">
+        <is>
+          <t>6. Resultado del Ejercicio</t>
+        </is>
+      </c>
       <c r="F81" s="15" t="n"/>
       <c r="G81" s="15" t="n"/>
       <c r="H81" s="15" t="n"/>
       <c r="I81" s="15" t="n"/>
       <c r="J81" s="15" t="n"/>
       <c r="K81" s="15" t="n"/>
-      <c r="L81" s="15" t="n"/>
+      <c r="L81" s="15" t="n">
+        <v>383259</v>
+      </c>
       <c r="M81" s="15" t="n"/>
       <c r="N81" s="15" t="n"/>
       <c r="O81" s="15" t="n"/>
@@ -20366,11 +20599,22 @@
       <c r="R81" s="15" t="n"/>
       <c r="S81" s="15" t="n"/>
       <c r="T81" s="15" t="n"/>
+      <c r="U81" s="16" t="n">
+        <v>383259</v>
+      </c>
     </row>
     <row r="82">
       <c r="C82" s="14" t="n"/>
-      <c r="D82" s="15" t="n"/>
-      <c r="E82" s="15" t="n"/>
+      <c r="D82" s="15" t="inlineStr">
+        <is>
+          <t>4F0234</t>
+        </is>
+      </c>
+      <c r="E82" s="15" t="inlineStr">
+        <is>
+          <t>7. Otro Resultado Integral</t>
+        </is>
+      </c>
       <c r="F82" s="15" t="n"/>
       <c r="G82" s="15" t="n"/>
       <c r="H82" s="15" t="n"/>
@@ -20379,38 +20623,78 @@
       <c r="K82" s="15" t="n"/>
       <c r="L82" s="15" t="n"/>
       <c r="M82" s="15" t="n"/>
-      <c r="N82" s="15" t="n"/>
-      <c r="O82" s="15" t="n"/>
+      <c r="N82" s="15" t="n">
+        <v>57925</v>
+      </c>
+      <c r="O82" s="15" t="n">
+        <v>-5904</v>
+      </c>
       <c r="P82" s="15" t="n"/>
-      <c r="Q82" s="15" t="n"/>
+      <c r="Q82" s="15" t="n">
+        <v>341847</v>
+      </c>
       <c r="R82" s="15" t="n"/>
       <c r="S82" s="15" t="n"/>
-      <c r="T82" s="15" t="n"/>
+      <c r="T82" s="15" t="n">
+        <v>393868</v>
+      </c>
+      <c r="U82" s="16" t="n">
+        <v>393868</v>
+      </c>
     </row>
     <row r="83">
       <c r="C83" s="12" t="n"/>
-      <c r="D83" s="13" t="n"/>
-      <c r="E83" s="13" t="n"/>
+      <c r="D83" s="13" t="inlineStr">
+        <is>
+          <t>4F0235</t>
+        </is>
+      </c>
+      <c r="E83" s="13" t="inlineStr">
+        <is>
+          <t>8. Resultado Integral Total</t>
+        </is>
+      </c>
       <c r="F83" s="13" t="n"/>
       <c r="G83" s="13" t="n"/>
       <c r="H83" s="13" t="n"/>
       <c r="I83" s="13" t="n"/>
       <c r="J83" s="13" t="n"/>
       <c r="K83" s="13" t="n"/>
-      <c r="L83" s="13" t="n"/>
+      <c r="L83" s="13" t="n">
+        <v>383259</v>
+      </c>
       <c r="M83" s="13" t="n"/>
-      <c r="N83" s="13" t="n"/>
-      <c r="O83" s="13" t="n"/>
+      <c r="N83" s="13" t="n">
+        <v>57925</v>
+      </c>
+      <c r="O83" s="13" t="n">
+        <v>-5904</v>
+      </c>
       <c r="P83" s="13" t="n"/>
-      <c r="Q83" s="13" t="n"/>
+      <c r="Q83" s="13" t="n">
+        <v>341847</v>
+      </c>
       <c r="R83" s="13" t="n"/>
       <c r="S83" s="13" t="n"/>
-      <c r="T83" s="13" t="n"/>
+      <c r="T83" s="13" t="n">
+        <v>393868</v>
+      </c>
+      <c r="U83" s="16" t="n">
+        <v>777127</v>
+      </c>
     </row>
     <row r="84">
       <c r="C84" s="14" t="n"/>
-      <c r="D84" s="15" t="n"/>
-      <c r="E84" s="15" t="n"/>
+      <c r="D84" s="15" t="inlineStr">
+        <is>
+          <t>4FT010</t>
+        </is>
+      </c>
+      <c r="E84" s="15" t="inlineStr">
+        <is>
+          <t>9. Cambios en el Patrimonio neto (no incluidos en el Resultado Integral)</t>
+        </is>
+      </c>
       <c r="F84" s="15" t="n"/>
       <c r="G84" s="15" t="n"/>
       <c r="H84" s="15" t="n"/>
@@ -20429,8 +20713,16 @@
     </row>
     <row r="85">
       <c r="C85" s="14" t="n"/>
-      <c r="D85" s="15" t="n"/>
-      <c r="E85" s="15" t="n"/>
+      <c r="D85" s="15" t="inlineStr">
+        <is>
+          <t>4F0236</t>
+        </is>
+      </c>
+      <c r="E85" s="15" t="inlineStr">
+        <is>
+          <t>10. Transferencia de Resultado del Ejercicio a Resultados acumulados</t>
+        </is>
+      </c>
       <c r="F85" s="15" t="n"/>
       <c r="G85" s="15" t="n"/>
       <c r="H85" s="15" t="n"/>
@@ -20449,14 +20741,24 @@
     </row>
     <row r="86">
       <c r="C86" s="14" t="n"/>
-      <c r="D86" s="15" t="n"/>
-      <c r="E86" s="15" t="n"/>
+      <c r="D86" s="15" t="inlineStr">
+        <is>
+          <t>4F0204</t>
+        </is>
+      </c>
+      <c r="E86" s="15" t="inlineStr">
+        <is>
+          <t>11. Dividendos en efectivo declarados</t>
+        </is>
+      </c>
       <c r="F86" s="15" t="n"/>
       <c r="G86" s="15" t="n"/>
       <c r="H86" s="15" t="n"/>
       <c r="I86" s="15" t="n"/>
       <c r="J86" s="15" t="n"/>
-      <c r="K86" s="15" t="n"/>
+      <c r="K86" s="15" t="n">
+        <v>-698228</v>
+      </c>
       <c r="L86" s="15" t="n"/>
       <c r="M86" s="15" t="n"/>
       <c r="N86" s="15" t="n"/>
@@ -20466,11 +20768,22 @@
       <c r="R86" s="15" t="n"/>
       <c r="S86" s="15" t="n"/>
       <c r="T86" s="15" t="n"/>
+      <c r="U86" s="16" t="n">
+        <v>-698228</v>
+      </c>
     </row>
     <row r="87">
       <c r="C87" s="14" t="n"/>
-      <c r="D87" s="15" t="n"/>
-      <c r="E87" s="15" t="n"/>
+      <c r="D87" s="15" t="inlineStr">
+        <is>
+          <t>4F0237</t>
+        </is>
+      </c>
+      <c r="E87" s="15" t="inlineStr">
+        <is>
+          <t>12. Emisión de acciones de Capital (distinto a combinación de negocios)</t>
+        </is>
+      </c>
       <c r="F87" s="15" t="n"/>
       <c r="G87" s="15" t="n"/>
       <c r="H87" s="15" t="n"/>
@@ -20486,11 +20799,20 @@
       <c r="R87" s="15" t="n"/>
       <c r="S87" s="15" t="n"/>
       <c r="T87" s="15" t="n"/>
+      <c r="U87" s="16" t="n"/>
     </row>
     <row r="88">
       <c r="C88" s="12" t="n"/>
-      <c r="D88" s="13" t="n"/>
-      <c r="E88" s="13" t="n"/>
+      <c r="D88" s="13" t="inlineStr">
+        <is>
+          <t>4F0238</t>
+        </is>
+      </c>
+      <c r="E88" s="13" t="inlineStr">
+        <is>
+          <t>13. Reducción de Capital (distinto a combinación de negocios)</t>
+        </is>
+      </c>
       <c r="F88" s="13" t="n"/>
       <c r="G88" s="13" t="n"/>
       <c r="H88" s="13" t="n"/>
@@ -20506,11 +20828,20 @@
       <c r="R88" s="13" t="n"/>
       <c r="S88" s="13" t="n"/>
       <c r="T88" s="13" t="n"/>
+      <c r="U88" s="16" t="n"/>
     </row>
     <row r="89">
       <c r="C89" s="14" t="n"/>
-      <c r="D89" s="15" t="n"/>
-      <c r="E89" s="15" t="n"/>
+      <c r="D89" s="15" t="inlineStr">
+        <is>
+          <t>4F0239</t>
+        </is>
+      </c>
+      <c r="E89" s="15" t="inlineStr">
+        <is>
+          <t>14. Incremento (disminución) de Combinaciones de Negocios</t>
+        </is>
+      </c>
       <c r="F89" s="15" t="n"/>
       <c r="G89" s="15" t="n"/>
       <c r="H89" s="15" t="n"/>
@@ -20529,11 +20860,21 @@
     </row>
     <row r="90">
       <c r="C90" s="14" t="n"/>
-      <c r="D90" s="15" t="n"/>
-      <c r="E90" s="15" t="n"/>
+      <c r="D90" s="15" t="inlineStr">
+        <is>
+          <t>4F0240</t>
+        </is>
+      </c>
+      <c r="E90" s="15" t="inlineStr">
+        <is>
+          <t>15. Incremento (disminución) por transacciones de acciones en tesorería</t>
+        </is>
+      </c>
       <c r="F90" s="15" t="n"/>
       <c r="G90" s="15" t="n"/>
-      <c r="H90" s="15" t="n"/>
+      <c r="H90" s="15" t="n">
+        <v>-2573</v>
+      </c>
       <c r="I90" s="15" t="n"/>
       <c r="J90" s="15" t="n"/>
       <c r="K90" s="15" t="n"/>
@@ -20546,17 +20887,34 @@
       <c r="R90" s="15" t="n"/>
       <c r="S90" s="15" t="n"/>
       <c r="T90" s="15" t="n"/>
+      <c r="U90" s="16" t="n">
+        <v>-2573</v>
+      </c>
     </row>
     <row r="91">
       <c r="C91" s="14" t="n"/>
-      <c r="D91" s="15" t="n"/>
-      <c r="E91" s="15" t="n"/>
+      <c r="D91" s="15" t="inlineStr">
+        <is>
+          <t>4F0241</t>
+        </is>
+      </c>
+      <c r="E91" s="15" t="inlineStr">
+        <is>
+          <t>16. Incremento (Disminución) por Transferencia y Otros Cambios</t>
+        </is>
+      </c>
       <c r="F91" s="15" t="n"/>
-      <c r="G91" s="15" t="n"/>
+      <c r="G91" s="15" t="n">
+        <v>2315</v>
+      </c>
       <c r="H91" s="15" t="n"/>
       <c r="I91" s="15" t="n"/>
-      <c r="J91" s="15" t="n"/>
-      <c r="K91" s="15" t="n"/>
+      <c r="J91" s="15" t="n">
+        <v>500000</v>
+      </c>
+      <c r="K91" s="15" t="n">
+        <v>-527402</v>
+      </c>
       <c r="L91" s="15" t="n"/>
       <c r="M91" s="15" t="n"/>
       <c r="N91" s="15" t="n"/>
@@ -20566,46 +20924,109 @@
       <c r="R91" s="15" t="n"/>
       <c r="S91" s="15" t="n"/>
       <c r="T91" s="15" t="n"/>
+      <c r="U91" s="16" t="n">
+        <v>-25087</v>
+      </c>
     </row>
     <row r="92">
       <c r="C92" s="14" t="n"/>
-      <c r="D92" s="15" t="n"/>
-      <c r="E92" s="15" t="n"/>
+      <c r="D92" s="15" t="inlineStr">
+        <is>
+          <t>4F0242</t>
+        </is>
+      </c>
+      <c r="E92" s="15" t="inlineStr">
+        <is>
+          <t>Total de cambios en el patrimonio</t>
+        </is>
+      </c>
       <c r="F92" s="15" t="n"/>
-      <c r="G92" s="15" t="n"/>
-      <c r="H92" s="15" t="n"/>
+      <c r="G92" s="15" t="n">
+        <v>2315</v>
+      </c>
+      <c r="H92" s="15" t="n">
+        <v>-2573</v>
+      </c>
       <c r="I92" s="15" t="n"/>
-      <c r="J92" s="15" t="n"/>
-      <c r="K92" s="15" t="n"/>
-      <c r="L92" s="15" t="n"/>
+      <c r="J92" s="15" t="n">
+        <v>500000</v>
+      </c>
+      <c r="K92" s="15" t="n">
+        <v>-1225630</v>
+      </c>
+      <c r="L92" s="15" t="n">
+        <v>383259</v>
+      </c>
       <c r="M92" s="15" t="n"/>
-      <c r="N92" s="15" t="n"/>
-      <c r="O92" s="15" t="n"/>
+      <c r="N92" s="15" t="n">
+        <v>57925</v>
+      </c>
+      <c r="O92" s="15" t="n">
+        <v>-5904</v>
+      </c>
       <c r="P92" s="15" t="n"/>
-      <c r="Q92" s="15" t="n"/>
+      <c r="Q92" s="15" t="n">
+        <v>341847</v>
+      </c>
       <c r="R92" s="15" t="n"/>
       <c r="S92" s="15" t="n"/>
-      <c r="T92" s="15" t="n"/>
+      <c r="T92" s="15" t="n">
+        <v>393868</v>
+      </c>
+      <c r="U92" s="16" t="n">
+        <v>51239</v>
+      </c>
     </row>
     <row r="93">
       <c r="C93" s="14" t="n"/>
-      <c r="D93" s="15" t="n"/>
-      <c r="E93" s="15" t="n"/>
-      <c r="F93" s="15" t="n"/>
-      <c r="G93" s="15" t="n"/>
-      <c r="H93" s="15" t="n"/>
+      <c r="D93" s="15" t="inlineStr">
+        <is>
+          <t>4F02ST</t>
+        </is>
+      </c>
+      <c r="E93" s="15" t="inlineStr">
+        <is>
+          <t>SALDOS AL 31 DE DICIEMBRE DE 2020</t>
+        </is>
+      </c>
+      <c r="F93" s="15" t="n">
+        <v>1038017</v>
+      </c>
+      <c r="G93" s="15" t="n">
+        <v>532771</v>
+      </c>
+      <c r="H93" s="15" t="n">
+        <v>-2769</v>
+      </c>
       <c r="I93" s="15" t="n"/>
-      <c r="J93" s="15" t="n"/>
-      <c r="K93" s="15" t="n"/>
-      <c r="L93" s="15" t="n"/>
+      <c r="J93" s="15" t="n">
+        <v>5200000</v>
+      </c>
+      <c r="K93" s="15" t="n">
+        <v>920058</v>
+      </c>
+      <c r="L93" s="15" t="n">
+        <v>383259</v>
+      </c>
       <c r="M93" s="15" t="n"/>
-      <c r="N93" s="15" t="n"/>
-      <c r="O93" s="15" t="n"/>
+      <c r="N93" s="15" t="n">
+        <v>273497</v>
+      </c>
+      <c r="O93" s="15" t="n">
+        <v>-20725</v>
+      </c>
       <c r="P93" s="15" t="n"/>
-      <c r="Q93" s="15" t="n"/>
+      <c r="Q93" s="15" t="n">
+        <v>584001</v>
+      </c>
       <c r="R93" s="15" t="n"/>
       <c r="S93" s="15" t="n"/>
-      <c r="T93" s="15" t="n"/>
+      <c r="T93" s="15" t="n">
+        <v>836773</v>
+      </c>
+      <c r="U93" s="16" t="n">
+        <v>8908109</v>
+      </c>
     </row>
     <row r="94">
       <c r="C94" s="14" t="n"/>
@@ -20646,6 +21067,7 @@
       <c r="R95" s="15" t="n"/>
       <c r="S95" s="15" t="n"/>
       <c r="T95" s="15" t="n"/>
+      <c r="U95" s="16" t="n"/>
     </row>
     <row r="96">
       <c r="C96" s="14" t="n"/>
@@ -20666,6 +21088,7 @@
       <c r="R96" s="15" t="n"/>
       <c r="S96" s="15" t="n"/>
       <c r="T96" s="15" t="n"/>
+      <c r="U96" s="16" t="n"/>
     </row>
     <row r="97">
       <c r="C97" s="14" t="n"/>
@@ -20686,6 +21109,7 @@
       <c r="R97" s="15" t="n"/>
       <c r="S97" s="15" t="n"/>
       <c r="T97" s="15" t="n"/>
+      <c r="U97" s="16" t="n"/>
     </row>
     <row r="98">
       <c r="C98" s="14" t="n"/>
@@ -20706,6 +21130,7 @@
       <c r="R98" s="15" t="n"/>
       <c r="S98" s="15" t="n"/>
       <c r="T98" s="15" t="n"/>
+      <c r="U98" s="16" t="n"/>
     </row>
     <row r="99">
       <c r="C99" s="14" t="n"/>
@@ -20726,6 +21151,7 @@
       <c r="R99" s="15" t="n"/>
       <c r="S99" s="15" t="n"/>
       <c r="T99" s="15" t="n"/>
+      <c r="U99" s="16" t="n"/>
     </row>
     <row r="100">
       <c r="C100" s="14" t="n"/>
@@ -20786,6 +21212,7 @@
       <c r="R102" s="13" t="n"/>
       <c r="S102" s="13" t="n"/>
       <c r="T102" s="13" t="n"/>
+      <c r="U102" s="16" t="n"/>
     </row>
     <row r="103">
       <c r="C103" s="12" t="n"/>
@@ -20809,28 +21236,65 @@
     </row>
     <row r="104">
       <c r="C104" s="12" t="n"/>
-      <c r="D104" s="13" t="n"/>
-      <c r="E104" s="13" t="n"/>
-      <c r="F104" s="13" t="n"/>
-      <c r="G104" s="13" t="n"/>
-      <c r="H104" s="13" t="n"/>
+      <c r="D104" s="13" t="inlineStr">
+        <is>
+          <t>4F0101</t>
+        </is>
+      </c>
+      <c r="E104" s="13" t="inlineStr">
+        <is>
+          <t>SALDOS AL 1ERO DE ENERO DE 2019</t>
+        </is>
+      </c>
+      <c r="F104" s="13" t="n">
+        <v>963446</v>
+      </c>
+      <c r="G104" s="13" t="n">
+        <v>268077</v>
+      </c>
+      <c r="H104" s="13" t="n">
+        <v>-208178</v>
+      </c>
       <c r="I104" s="13" t="n"/>
-      <c r="J104" s="13" t="n"/>
-      <c r="K104" s="13" t="n"/>
+      <c r="J104" s="13" t="n">
+        <v>4700000</v>
+      </c>
+      <c r="K104" s="13" t="n">
+        <v>1203043</v>
+      </c>
       <c r="L104" s="13" t="n"/>
       <c r="M104" s="13" t="n"/>
-      <c r="N104" s="13" t="n"/>
-      <c r="O104" s="13" t="n"/>
+      <c r="N104" s="13" t="n">
+        <v>157469</v>
+      </c>
+      <c r="O104" s="13" t="n">
+        <v>4873</v>
+      </c>
       <c r="P104" s="13" t="n"/>
-      <c r="Q104" s="13" t="n"/>
+      <c r="Q104" s="13" t="n">
+        <v>-40656</v>
+      </c>
       <c r="R104" s="13" t="n"/>
       <c r="S104" s="13" t="n"/>
-      <c r="T104" s="13" t="n"/>
+      <c r="T104" s="13" t="n">
+        <v>121686</v>
+      </c>
+      <c r="U104" s="16" t="n">
+        <v>7048074</v>
+      </c>
     </row>
     <row r="105">
       <c r="C105" s="14" t="n"/>
-      <c r="D105" s="15" t="n"/>
-      <c r="E105" s="15" t="n"/>
+      <c r="D105" s="15" t="inlineStr">
+        <is>
+          <t>4F0131</t>
+        </is>
+      </c>
+      <c r="E105" s="15" t="inlineStr">
+        <is>
+          <t>1. Ajustes por cambios en políticas contables</t>
+        </is>
+      </c>
       <c r="F105" s="15" t="n"/>
       <c r="G105" s="15" t="n"/>
       <c r="H105" s="15" t="n"/>
@@ -20849,8 +21313,16 @@
     </row>
     <row r="106">
       <c r="C106" s="14" t="n"/>
-      <c r="D106" s="15" t="n"/>
-      <c r="E106" s="15" t="n"/>
+      <c r="D106" s="15" t="inlineStr">
+        <is>
+          <t>4F0132</t>
+        </is>
+      </c>
+      <c r="E106" s="15" t="inlineStr">
+        <is>
+          <t>2. Ajustes por corrección de errores</t>
+        </is>
+      </c>
       <c r="F106" s="15" t="n"/>
       <c r="G106" s="15" t="n"/>
       <c r="H106" s="15" t="n"/>
@@ -20869,28 +21341,65 @@
     </row>
     <row r="107">
       <c r="C107" s="12" t="n"/>
-      <c r="D107" s="13" t="n"/>
-      <c r="E107" s="13" t="n"/>
-      <c r="F107" s="13" t="n"/>
-      <c r="G107" s="13" t="n"/>
-      <c r="H107" s="13" t="n"/>
+      <c r="D107" s="13" t="inlineStr">
+        <is>
+          <t>4F0133</t>
+        </is>
+      </c>
+      <c r="E107" s="13" t="inlineStr">
+        <is>
+          <t>3. Saldo Inicial después de ajustes</t>
+        </is>
+      </c>
+      <c r="F107" s="13" t="n">
+        <v>963446</v>
+      </c>
+      <c r="G107" s="13" t="n">
+        <v>268077</v>
+      </c>
+      <c r="H107" s="13" t="n">
+        <v>-208178</v>
+      </c>
       <c r="I107" s="13" t="n"/>
-      <c r="J107" s="13" t="n"/>
-      <c r="K107" s="13" t="n"/>
+      <c r="J107" s="13" t="n">
+        <v>4700000</v>
+      </c>
+      <c r="K107" s="13" t="n">
+        <v>1203043</v>
+      </c>
       <c r="L107" s="13" t="n"/>
       <c r="M107" s="13" t="n"/>
-      <c r="N107" s="13" t="n"/>
-      <c r="O107" s="13" t="n"/>
+      <c r="N107" s="13" t="n">
+        <v>157469</v>
+      </c>
+      <c r="O107" s="13" t="n">
+        <v>4873</v>
+      </c>
       <c r="P107" s="13" t="n"/>
-      <c r="Q107" s="13" t="n"/>
+      <c r="Q107" s="13" t="n">
+        <v>-40656</v>
+      </c>
       <c r="R107" s="13" t="n"/>
       <c r="S107" s="13" t="n"/>
-      <c r="T107" s="13" t="n"/>
+      <c r="T107" s="13" t="n">
+        <v>121686</v>
+      </c>
+      <c r="U107" s="16" t="n">
+        <v>7048074</v>
+      </c>
     </row>
     <row r="108">
       <c r="C108" s="14" t="n"/>
-      <c r="D108" s="15" t="n"/>
-      <c r="E108" s="15" t="n"/>
+      <c r="D108" s="15" t="inlineStr">
+        <is>
+          <t>4FT005</t>
+        </is>
+      </c>
+      <c r="E108" s="15" t="inlineStr">
+        <is>
+          <t>4. Cambios en Patrimonio:</t>
+        </is>
+      </c>
       <c r="F108" s="15" t="n"/>
       <c r="G108" s="15" t="n"/>
       <c r="H108" s="15" t="n"/>
@@ -20909,8 +21418,16 @@
     </row>
     <row r="109">
       <c r="C109" s="14" t="n"/>
-      <c r="D109" s="15" t="n"/>
-      <c r="E109" s="15" t="n"/>
+      <c r="D109" s="15" t="inlineStr">
+        <is>
+          <t>4FT006</t>
+        </is>
+      </c>
+      <c r="E109" s="15" t="inlineStr">
+        <is>
+          <t>5. Resultado Integral:</t>
+        </is>
+      </c>
       <c r="F109" s="15" t="n"/>
       <c r="G109" s="15" t="n"/>
       <c r="H109" s="15" t="n"/>
@@ -20929,15 +21446,25 @@
     </row>
     <row r="110">
       <c r="C110" s="14" t="n"/>
-      <c r="D110" s="15" t="n"/>
-      <c r="E110" s="15" t="n"/>
+      <c r="D110" s="15" t="inlineStr">
+        <is>
+          <t>4F0111</t>
+        </is>
+      </c>
+      <c r="E110" s="15" t="inlineStr">
+        <is>
+          <t>6. Resultado del Ejercicio</t>
+        </is>
+      </c>
       <c r="F110" s="15" t="n"/>
       <c r="G110" s="15" t="n"/>
       <c r="H110" s="15" t="n"/>
       <c r="I110" s="15" t="n"/>
       <c r="J110" s="15" t="n"/>
       <c r="K110" s="15" t="n"/>
-      <c r="L110" s="15" t="n"/>
+      <c r="L110" s="15" t="n">
+        <v>1441258</v>
+      </c>
       <c r="M110" s="15" t="n"/>
       <c r="N110" s="15" t="n"/>
       <c r="O110" s="15" t="n"/>
@@ -20946,11 +21473,22 @@
       <c r="R110" s="15" t="n"/>
       <c r="S110" s="15" t="n"/>
       <c r="T110" s="15" t="n"/>
+      <c r="U110" s="16" t="n">
+        <v>1441258</v>
+      </c>
     </row>
     <row r="111">
       <c r="C111" s="14" t="n"/>
-      <c r="D111" s="15" t="n"/>
-      <c r="E111" s="15" t="n"/>
+      <c r="D111" s="15" t="inlineStr">
+        <is>
+          <t>4F0134</t>
+        </is>
+      </c>
+      <c r="E111" s="15" t="inlineStr">
+        <is>
+          <t>7. Otro Resultado Integral</t>
+        </is>
+      </c>
       <c r="F111" s="15" t="n"/>
       <c r="G111" s="15" t="n"/>
       <c r="H111" s="15" t="n"/>
@@ -20959,38 +21497,78 @@
       <c r="K111" s="15" t="n"/>
       <c r="L111" s="15" t="n"/>
       <c r="M111" s="15" t="n"/>
-      <c r="N111" s="15" t="n"/>
-      <c r="O111" s="15" t="n"/>
+      <c r="N111" s="15" t="n">
+        <v>58103</v>
+      </c>
+      <c r="O111" s="15" t="n">
+        <v>-19694</v>
+      </c>
       <c r="P111" s="15" t="n"/>
-      <c r="Q111" s="15" t="n"/>
+      <c r="Q111" s="15" t="n">
+        <v>282810</v>
+      </c>
       <c r="R111" s="15" t="n"/>
       <c r="S111" s="15" t="n"/>
-      <c r="T111" s="15" t="n"/>
+      <c r="T111" s="15" t="n">
+        <v>321219</v>
+      </c>
+      <c r="U111" s="16" t="n">
+        <v>321219</v>
+      </c>
     </row>
     <row r="112">
       <c r="C112" s="12" t="n"/>
-      <c r="D112" s="13" t="n"/>
-      <c r="E112" s="13" t="n"/>
+      <c r="D112" s="13" t="inlineStr">
+        <is>
+          <t>4F0135</t>
+        </is>
+      </c>
+      <c r="E112" s="13" t="inlineStr">
+        <is>
+          <t>8. Resultado Integral Total</t>
+        </is>
+      </c>
       <c r="F112" s="13" t="n"/>
       <c r="G112" s="13" t="n"/>
       <c r="H112" s="13" t="n"/>
       <c r="I112" s="13" t="n"/>
       <c r="J112" s="13" t="n"/>
       <c r="K112" s="13" t="n"/>
-      <c r="L112" s="13" t="n"/>
+      <c r="L112" s="13" t="n">
+        <v>1441258</v>
+      </c>
       <c r="M112" s="13" t="n"/>
-      <c r="N112" s="13" t="n"/>
-      <c r="O112" s="13" t="n"/>
+      <c r="N112" s="13" t="n">
+        <v>58103</v>
+      </c>
+      <c r="O112" s="13" t="n">
+        <v>-19694</v>
+      </c>
       <c r="P112" s="13" t="n"/>
-      <c r="Q112" s="13" t="n"/>
+      <c r="Q112" s="13" t="n">
+        <v>282810</v>
+      </c>
       <c r="R112" s="13" t="n"/>
       <c r="S112" s="13" t="n"/>
-      <c r="T112" s="13" t="n"/>
+      <c r="T112" s="13" t="n">
+        <v>321219</v>
+      </c>
+      <c r="U112" s="16" t="n">
+        <v>1762477</v>
+      </c>
     </row>
     <row r="113">
       <c r="C113" s="14" t="n"/>
-      <c r="D113" s="15" t="n"/>
-      <c r="E113" s="15" t="n"/>
+      <c r="D113" s="15" t="inlineStr">
+        <is>
+          <t>4FT007</t>
+        </is>
+      </c>
+      <c r="E113" s="15" t="inlineStr">
+        <is>
+          <t>9. Cambios en el Patrimonio neto (no incluidos en el Resultado Integral)</t>
+        </is>
+      </c>
       <c r="F113" s="15" t="n"/>
       <c r="G113" s="15" t="n"/>
       <c r="H113" s="15" t="n"/>
@@ -21009,8 +21587,16 @@
     </row>
     <row r="114">
       <c r="C114" s="14" t="n"/>
-      <c r="D114" s="15" t="n"/>
-      <c r="E114" s="15" t="n"/>
+      <c r="D114" s="15" t="inlineStr">
+        <is>
+          <t>4F0136</t>
+        </is>
+      </c>
+      <c r="E114" s="15" t="inlineStr">
+        <is>
+          <t>10. Transferencia de Resultado del Ejercicio a Resultados acumulados</t>
+        </is>
+      </c>
       <c r="F114" s="15" t="n"/>
       <c r="G114" s="15" t="n"/>
       <c r="H114" s="15" t="n"/>
@@ -21029,14 +21615,24 @@
     </row>
     <row r="115">
       <c r="C115" s="14" t="n"/>
-      <c r="D115" s="15" t="n"/>
-      <c r="E115" s="15" t="n"/>
+      <c r="D115" s="15" t="inlineStr">
+        <is>
+          <t>4F0104</t>
+        </is>
+      </c>
+      <c r="E115" s="15" t="inlineStr">
+        <is>
+          <t>11. Dividendos en efectivo declarados</t>
+        </is>
+      </c>
       <c r="F115" s="15" t="n"/>
       <c r="G115" s="15" t="n"/>
       <c r="H115" s="15" t="n"/>
       <c r="I115" s="15" t="n"/>
       <c r="J115" s="15" t="n"/>
-      <c r="K115" s="15" t="n"/>
+      <c r="K115" s="15" t="n">
+        <v>-654464</v>
+      </c>
       <c r="L115" s="15" t="n"/>
       <c r="M115" s="15" t="n"/>
       <c r="N115" s="15" t="n"/>
@@ -21046,17 +21642,36 @@
       <c r="R115" s="15" t="n"/>
       <c r="S115" s="15" t="n"/>
       <c r="T115" s="15" t="n"/>
+      <c r="U115" s="16" t="n">
+        <v>-654464</v>
+      </c>
     </row>
     <row r="116">
       <c r="C116" s="14" t="n"/>
-      <c r="D116" s="15" t="n"/>
-      <c r="E116" s="15" t="n"/>
-      <c r="F116" s="15" t="n"/>
-      <c r="G116" s="15" t="n"/>
-      <c r="H116" s="15" t="n"/>
+      <c r="D116" s="15" t="inlineStr">
+        <is>
+          <t>4F0137</t>
+        </is>
+      </c>
+      <c r="E116" s="15" t="inlineStr">
+        <is>
+          <t>12. Emisión de acciones de Capital (distinto a combinación de negocios)</t>
+        </is>
+      </c>
+      <c r="F116" s="15" t="n">
+        <v>74571</v>
+      </c>
+      <c r="G116" s="15" t="n">
+        <v>262379</v>
+      </c>
+      <c r="H116" s="15" t="n">
+        <v>208178</v>
+      </c>
       <c r="I116" s="15" t="n"/>
       <c r="J116" s="15" t="n"/>
-      <c r="K116" s="15" t="n"/>
+      <c r="K116" s="15" t="n">
+        <v>138997</v>
+      </c>
       <c r="L116" s="15" t="n"/>
       <c r="M116" s="15" t="n"/>
       <c r="N116" s="15" t="n"/>
@@ -21066,11 +21681,22 @@
       <c r="R116" s="15" t="n"/>
       <c r="S116" s="15" t="n"/>
       <c r="T116" s="15" t="n"/>
+      <c r="U116" s="16" t="n">
+        <v>684125</v>
+      </c>
     </row>
     <row r="117">
       <c r="C117" s="14" t="n"/>
-      <c r="D117" s="15" t="n"/>
-      <c r="E117" s="15" t="n"/>
+      <c r="D117" s="15" t="inlineStr">
+        <is>
+          <t>4F0138</t>
+        </is>
+      </c>
+      <c r="E117" s="15" t="inlineStr">
+        <is>
+          <t>13. Reducción de Capital (distinto a combinación de negocios)</t>
+        </is>
+      </c>
       <c r="F117" s="15" t="n"/>
       <c r="G117" s="15" t="n"/>
       <c r="H117" s="15" t="n"/>
@@ -21089,8 +21715,16 @@
     </row>
     <row r="118">
       <c r="C118" s="14" t="n"/>
-      <c r="D118" s="15" t="n"/>
-      <c r="E118" s="15" t="n"/>
+      <c r="D118" s="15" t="inlineStr">
+        <is>
+          <t>4F0139</t>
+        </is>
+      </c>
+      <c r="E118" s="15" t="inlineStr">
+        <is>
+          <t>14. Incremento (disminución) de Combinaciones de Negocios</t>
+        </is>
+      </c>
       <c r="F118" s="15" t="n"/>
       <c r="G118" s="15" t="n"/>
       <c r="H118" s="15" t="n"/>
@@ -21109,11 +21743,21 @@
     </row>
     <row r="119">
       <c r="C119" s="14" t="n"/>
-      <c r="D119" s="15" t="n"/>
-      <c r="E119" s="15" t="n"/>
+      <c r="D119" s="15" t="inlineStr">
+        <is>
+          <t>4F0140</t>
+        </is>
+      </c>
+      <c r="E119" s="15" t="inlineStr">
+        <is>
+          <t>15. Incremento (disminución) por transacciones de acciones en tesorería</t>
+        </is>
+      </c>
       <c r="F119" s="15" t="n"/>
       <c r="G119" s="15" t="n"/>
-      <c r="H119" s="15" t="n"/>
+      <c r="H119" s="15" t="n">
+        <v>-196</v>
+      </c>
       <c r="I119" s="15" t="n"/>
       <c r="J119" s="15" t="n"/>
       <c r="K119" s="15" t="n"/>
@@ -21126,17 +21770,30 @@
       <c r="R119" s="15" t="n"/>
       <c r="S119" s="15" t="n"/>
       <c r="T119" s="15" t="n"/>
+      <c r="U119" s="16" t="n">
+        <v>-196</v>
+      </c>
     </row>
     <row r="120">
       <c r="C120" s="14" t="n"/>
-      <c r="D120" s="15" t="n"/>
-      <c r="E120" s="15" t="n"/>
+      <c r="D120" s="15" t="inlineStr">
+        <is>
+          <t>4F0141</t>
+        </is>
+      </c>
+      <c r="E120" s="15" t="inlineStr">
+        <is>
+          <t>16. Incremento (Disminución) por Transferencia y Otros Cambios</t>
+        </is>
+      </c>
       <c r="F120" s="15" t="n"/>
       <c r="G120" s="15" t="n"/>
       <c r="H120" s="15" t="n"/>
       <c r="I120" s="15" t="n"/>
       <c r="J120" s="15" t="n"/>
-      <c r="K120" s="15" t="n"/>
+      <c r="K120" s="15" t="n">
+        <v>16854</v>
+      </c>
       <c r="L120" s="15" t="n"/>
       <c r="M120" s="15" t="n"/>
       <c r="N120" s="15" t="n"/>
@@ -21146,71 +21803,171 @@
       <c r="R120" s="15" t="n"/>
       <c r="S120" s="15" t="n"/>
       <c r="T120" s="15" t="n"/>
+      <c r="U120" s="16" t="n">
+        <v>16854</v>
+      </c>
     </row>
     <row r="121">
       <c r="C121" s="14" t="n"/>
-      <c r="D121" s="15" t="n"/>
-      <c r="E121" s="15" t="n"/>
-      <c r="F121" s="15" t="n"/>
-      <c r="G121" s="15" t="n"/>
-      <c r="H121" s="15" t="n"/>
+      <c r="D121" s="15" t="inlineStr">
+        <is>
+          <t>4F0142</t>
+        </is>
+      </c>
+      <c r="E121" s="15" t="inlineStr">
+        <is>
+          <t>Total de cambios en el patrimonio</t>
+        </is>
+      </c>
+      <c r="F121" s="15" t="n">
+        <v>74571</v>
+      </c>
+      <c r="G121" s="15" t="n">
+        <v>262379</v>
+      </c>
+      <c r="H121" s="15" t="n">
+        <v>207982</v>
+      </c>
       <c r="I121" s="15" t="n"/>
       <c r="J121" s="15" t="n"/>
-      <c r="K121" s="15" t="n"/>
-      <c r="L121" s="15" t="n"/>
+      <c r="K121" s="15" t="n">
+        <v>-498613</v>
+      </c>
+      <c r="L121" s="15" t="n">
+        <v>1441258</v>
+      </c>
       <c r="M121" s="15" t="n"/>
-      <c r="N121" s="15" t="n"/>
-      <c r="O121" s="15" t="n"/>
+      <c r="N121" s="15" t="n">
+        <v>58103</v>
+      </c>
+      <c r="O121" s="15" t="n">
+        <v>-19694</v>
+      </c>
       <c r="P121" s="15" t="n"/>
-      <c r="Q121" s="15" t="n"/>
+      <c r="Q121" s="15" t="n">
+        <v>282810</v>
+      </c>
       <c r="R121" s="15" t="n"/>
       <c r="S121" s="15" t="n"/>
-      <c r="T121" s="15" t="n"/>
+      <c r="T121" s="15" t="n">
+        <v>321219</v>
+      </c>
+      <c r="U121" s="16" t="n">
+        <v>1808796</v>
+      </c>
     </row>
     <row r="122">
       <c r="C122" s="14" t="n"/>
-      <c r="D122" s="15" t="n"/>
-      <c r="E122" s="15" t="n"/>
-      <c r="F122" s="15" t="n"/>
-      <c r="G122" s="15" t="n"/>
-      <c r="H122" s="15" t="n"/>
+      <c r="D122" s="15" t="inlineStr">
+        <is>
+          <t>4F01ST</t>
+        </is>
+      </c>
+      <c r="E122" s="15" t="inlineStr">
+        <is>
+          <t>SALDOS AL 31 DE DICIEMBRE DE 2019</t>
+        </is>
+      </c>
+      <c r="F122" s="15" t="n">
+        <v>1038017</v>
+      </c>
+      <c r="G122" s="15" t="n">
+        <v>530456</v>
+      </c>
+      <c r="H122" s="15" t="n">
+        <v>-196</v>
+      </c>
       <c r="I122" s="15" t="n"/>
-      <c r="J122" s="15" t="n"/>
-      <c r="K122" s="15" t="n"/>
-      <c r="L122" s="15" t="n"/>
+      <c r="J122" s="15" t="n">
+        <v>4700000</v>
+      </c>
+      <c r="K122" s="15" t="n">
+        <v>704430</v>
+      </c>
+      <c r="L122" s="15" t="n">
+        <v>1441258</v>
+      </c>
       <c r="M122" s="15" t="n"/>
-      <c r="N122" s="15" t="n"/>
-      <c r="O122" s="15" t="n"/>
+      <c r="N122" s="15" t="n">
+        <v>215572</v>
+      </c>
+      <c r="O122" s="15" t="n">
+        <v>-14821</v>
+      </c>
       <c r="P122" s="15" t="n"/>
-      <c r="Q122" s="15" t="n"/>
+      <c r="Q122" s="15" t="n">
+        <v>242154</v>
+      </c>
       <c r="R122" s="15" t="n"/>
       <c r="S122" s="15" t="n"/>
-      <c r="T122" s="15" t="n"/>
+      <c r="T122" s="15" t="n">
+        <v>442905</v>
+      </c>
+      <c r="U122" s="16" t="n">
+        <v>8856870</v>
+      </c>
     </row>
     <row r="123">
       <c r="C123" s="14" t="n"/>
-      <c r="D123" s="15" t="n"/>
-      <c r="E123" s="15" t="n"/>
-      <c r="F123" s="15" t="n"/>
-      <c r="G123" s="15" t="n"/>
-      <c r="H123" s="15" t="n"/>
+      <c r="D123" s="15" t="inlineStr">
+        <is>
+          <t>4F0201</t>
+        </is>
+      </c>
+      <c r="E123" s="15" t="inlineStr">
+        <is>
+          <t>SALDOS AL 1ERO DE ENERO DE 2020</t>
+        </is>
+      </c>
+      <c r="F123" s="15" t="n">
+        <v>1038017</v>
+      </c>
+      <c r="G123" s="15" t="n">
+        <v>530456</v>
+      </c>
+      <c r="H123" s="15" t="n">
+        <v>-196</v>
+      </c>
       <c r="I123" s="15" t="n"/>
-      <c r="J123" s="15" t="n"/>
-      <c r="K123" s="15" t="n"/>
+      <c r="J123" s="15" t="n">
+        <v>4700000</v>
+      </c>
+      <c r="K123" s="15" t="n">
+        <v>2145688</v>
+      </c>
       <c r="L123" s="15" t="n"/>
       <c r="M123" s="15" t="n"/>
-      <c r="N123" s="15" t="n"/>
-      <c r="O123" s="15" t="n"/>
+      <c r="N123" s="15" t="n">
+        <v>215572</v>
+      </c>
+      <c r="O123" s="15" t="n">
+        <v>-14821</v>
+      </c>
       <c r="P123" s="15" t="n"/>
-      <c r="Q123" s="15" t="n"/>
+      <c r="Q123" s="15" t="n">
+        <v>242154</v>
+      </c>
       <c r="R123" s="15" t="n"/>
       <c r="S123" s="15" t="n"/>
-      <c r="T123" s="15" t="n"/>
+      <c r="T123" s="15" t="n">
+        <v>442905</v>
+      </c>
+      <c r="U123" s="16" t="n">
+        <v>8856870</v>
+      </c>
     </row>
     <row r="124">
       <c r="C124" s="14" t="n"/>
-      <c r="D124" s="15" t="n"/>
-      <c r="E124" s="15" t="n"/>
+      <c r="D124" s="15" t="inlineStr">
+        <is>
+          <t>4F0231</t>
+        </is>
+      </c>
+      <c r="E124" s="15" t="inlineStr">
+        <is>
+          <t>1. Ajustes por cambios en políticas contables</t>
+        </is>
+      </c>
       <c r="F124" s="15" t="n"/>
       <c r="G124" s="15" t="n"/>
       <c r="H124" s="15" t="n"/>
@@ -21229,8 +21986,16 @@
     </row>
     <row r="125">
       <c r="C125" s="14" t="n"/>
-      <c r="D125" s="15" t="n"/>
-      <c r="E125" s="15" t="n"/>
+      <c r="D125" s="15" t="inlineStr">
+        <is>
+          <t>4F0232</t>
+        </is>
+      </c>
+      <c r="E125" s="15" t="inlineStr">
+        <is>
+          <t>2. Ajustes por corrección de errores</t>
+        </is>
+      </c>
       <c r="F125" s="15" t="n"/>
       <c r="G125" s="15" t="n"/>
       <c r="H125" s="15" t="n"/>
@@ -21249,28 +22014,65 @@
     </row>
     <row r="126">
       <c r="C126" s="12" t="n"/>
-      <c r="D126" s="13" t="n"/>
-      <c r="E126" s="13" t="n"/>
-      <c r="F126" s="13" t="n"/>
-      <c r="G126" s="13" t="n"/>
-      <c r="H126" s="13" t="n"/>
+      <c r="D126" s="13" t="inlineStr">
+        <is>
+          <t>4F0233</t>
+        </is>
+      </c>
+      <c r="E126" s="13" t="inlineStr">
+        <is>
+          <t>3. Saldo Inicial después de ajustes</t>
+        </is>
+      </c>
+      <c r="F126" s="13" t="n">
+        <v>1038017</v>
+      </c>
+      <c r="G126" s="13" t="n">
+        <v>530456</v>
+      </c>
+      <c r="H126" s="13" t="n">
+        <v>-196</v>
+      </c>
       <c r="I126" s="13" t="n"/>
-      <c r="J126" s="13" t="n"/>
-      <c r="K126" s="13" t="n"/>
+      <c r="J126" s="13" t="n">
+        <v>4700000</v>
+      </c>
+      <c r="K126" s="13" t="n">
+        <v>2145688</v>
+      </c>
       <c r="L126" s="13" t="n"/>
       <c r="M126" s="13" t="n"/>
-      <c r="N126" s="13" t="n"/>
-      <c r="O126" s="13" t="n"/>
+      <c r="N126" s="13" t="n">
+        <v>215572</v>
+      </c>
+      <c r="O126" s="13" t="n">
+        <v>-14821</v>
+      </c>
       <c r="P126" s="13" t="n"/>
-      <c r="Q126" s="13" t="n"/>
+      <c r="Q126" s="13" t="n">
+        <v>242154</v>
+      </c>
       <c r="R126" s="13" t="n"/>
       <c r="S126" s="13" t="n"/>
-      <c r="T126" s="13" t="n"/>
+      <c r="T126" s="13" t="n">
+        <v>442905</v>
+      </c>
+      <c r="U126" s="16" t="n">
+        <v>8856870</v>
+      </c>
     </row>
     <row r="127">
       <c r="C127" s="12" t="n"/>
-      <c r="D127" s="13" t="n"/>
-      <c r="E127" s="13" t="n"/>
+      <c r="D127" s="13" t="inlineStr">
+        <is>
+          <t>4FT008</t>
+        </is>
+      </c>
+      <c r="E127" s="13" t="inlineStr">
+        <is>
+          <t>4. Cambios en Patrimonio:</t>
+        </is>
+      </c>
       <c r="F127" s="13" t="n"/>
       <c r="G127" s="13" t="n"/>
       <c r="H127" s="13" t="n"/>
@@ -23914,22 +24716,22 @@
           <t>31365</t>
         </is>
       </c>
-      <c r="E45" s="16" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>55169</t>
         </is>
       </c>
-      <c r="F45" s="16" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>(222,930)</t>
         </is>
       </c>
-      <c r="G45" s="16" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>10582</t>
         </is>
       </c>
-      <c r="H45" s="16" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>(198,000)</t>
         </is>
@@ -23973,22 +24775,22 @@
           <t>1665</t>
         </is>
       </c>
-      <c r="E46" s="16" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>(5,971)</t>
         </is>
       </c>
-      <c r="F46" s="16" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>(16,167)</t>
         </is>
       </c>
-      <c r="G46" s="16" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>18215</t>
         </is>
       </c>
-      <c r="H46" s="16" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>31065</t>
         </is>
@@ -24032,22 +24834,22 @@
           <t>33030</t>
         </is>
       </c>
-      <c r="E47" s="16" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>49198</t>
         </is>
       </c>
-      <c r="F47" s="16" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>(239,097)</t>
         </is>
       </c>
-      <c r="G47" s="16" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>28797</t>
         </is>
       </c>
-      <c r="H47" s="16" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>(166,935)</t>
         </is>
@@ -24091,22 +24893,22 @@
           <t>148941</t>
         </is>
       </c>
-      <c r="E48" s="16" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>99743</t>
         </is>
       </c>
-      <c r="F48" s="16" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>338840</t>
         </is>
       </c>
-      <c r="G48" s="16" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>310043</t>
         </is>
       </c>
-      <c r="H48" s="16" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>476978</t>
         </is>
@@ -24150,22 +24952,22 @@
           <t>181971</t>
         </is>
       </c>
-      <c r="E49" s="16" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>148941</t>
         </is>
       </c>
-      <c r="F49" s="16" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>99743</t>
         </is>
       </c>
-      <c r="G49" s="16" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>338840</t>
         </is>
       </c>
-      <c r="H49" s="16" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>310043</t>
         </is>
